--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -439,49 +439,45 @@
           <t>First Word</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Column 1</t>
-        </is>
-      </c>
+      <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Column 2</t>
+          <t>Nr of points</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Column 3</t>
+          <t>Points</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Column 4</t>
+          <t>%-age</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Column 5</t>
+          <t>Column 6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Column 6</t>
+          <t>Column 7</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Column 7</t>
+          <t>Column 8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Column 8</t>
+          <t>Column 9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Column 9</t>
+          <t>Column 10</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -439,47 +439,47 @@
           <t>First Word</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nr of points</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Points</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>%-age</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Column 6</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Column 7</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Column 8</t>
+          <t>Default Red</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Column 9</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Column 10</t>
-        </is>
-      </c>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>First Word</t>
+          <t>Car Names</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -479,7 +479,11 @@
           <t>Blue</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -432,6 +432,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="8.4" customWidth="1" min="3" max="3"/>
+    <col width="9.6" customWidth="1" min="4" max="4"/>
+    <col width="9.6" customWidth="1" min="5" max="5"/>
+    <col width="8.4" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="15.6" customWidth="1" min="8" max="8"/>
+    <col width="7.199999999999999" customWidth="1" min="9" max="9"/>
+    <col width="60" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -495,28 +507,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3975903614457831</v>
+        <v>39.76</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3554216867469879</v>
+        <v>35.54</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1144578313253012</v>
+        <v>11.45</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0783132530120482</v>
+        <v>7.83</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03012048192771084</v>
+        <v>3.01</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02409638554216868</v>
+        <v>2.41</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +538,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03896103896103896</v>
+        <v>3.9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2792207792207792</v>
+        <v>27.92</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2597402597402597</v>
+        <v>25.97</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1753246753246753</v>
+        <v>17.53</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03896103896103896</v>
+        <v>3.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1428571428571428</v>
+        <v>14.29</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06493506493506493</v>
+        <v>6.49</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -563,28 +575,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5833333333333334</v>
+        <v>58.33</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1369047619047619</v>
+        <v>13.69</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04166666666666666</v>
+        <v>4.17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02976190476190476</v>
+        <v>2.98</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1845238095238095</v>
+        <v>18.45</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02380952380952381</v>
+        <v>2.38</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -597,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5833333333333334</v>
+        <v>58.33</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1369047619047619</v>
+        <v>13.69</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04166666666666666</v>
+        <v>4.17</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02976190476190476</v>
+        <v>2.98</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1845238095238095</v>
+        <v>18.45</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02380952380952381</v>
+        <v>2.38</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -631,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3588235294117647</v>
+        <v>35.88</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2117647058823529</v>
+        <v>21.18</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2117647058823529</v>
+        <v>21.18</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1235294117647059</v>
+        <v>12.35</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09411764705882353</v>
+        <v>9.41</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -652,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -665,28 +677,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7083333333333334</v>
+        <v>70.83</v>
       </c>
       <c r="D7" t="n">
-        <v>0.130952380952381</v>
+        <v>13.1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07738095238095238</v>
+        <v>7.74</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04761904761904762</v>
+        <v>4.76</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02380952380952381</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0119047619047619</v>
+        <v>1.19</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +711,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0989010989010989</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3351648351648351</v>
+        <v>33.52</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2362637362637363</v>
+        <v>23.63</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09340659340659341</v>
+        <v>9.34</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2142857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02197802197802198</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -730,31 +742,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06179775280898876</v>
+        <v>6.18</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1797752808988764</v>
+        <v>17.98</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3707865168539326</v>
+        <v>37.08</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1235955056179775</v>
+        <v>12.36</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07865168539325842</v>
+        <v>7.87</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1292134831460674</v>
+        <v>12.92</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05617977528089887</v>
+        <v>5.62</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -767,28 +779,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1829268292682927</v>
+        <v>18.29</v>
       </c>
       <c r="D10" t="n">
-        <v>0.225609756097561</v>
+        <v>22.56</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1402439024390244</v>
+        <v>14.02</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1158536585365854</v>
+        <v>11.59</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3109756097560976</v>
+        <v>31.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02439024390243903</v>
+        <v>2.44</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +810,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09523809523809523</v>
+        <v>9.52</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2202380952380952</v>
+        <v>22.02</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1845238095238095</v>
+        <v>18.45</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2261904761904762</v>
+        <v>22.62</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04761904761904762</v>
+        <v>4.76</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1904761904761905</v>
+        <v>19.05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03571428571428571</v>
+        <v>3.57</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -835,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2102272727272727</v>
+        <v>21.02</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4147727272727273</v>
+        <v>41.48</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1875</v>
+        <v>18.75</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07954545454545454</v>
+        <v>7.95</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1079545454545455</v>
+        <v>10.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -856,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -869,28 +881,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2142857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3333333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2083333333333333</v>
+        <v>20.83</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04166666666666666</v>
+        <v>4.17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1666666666666667</v>
+        <v>16.67</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03571428571428571</v>
+        <v>3.57</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -903,28 +915,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2142857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3333333333333333</v>
+        <v>33.33</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2083333333333333</v>
+        <v>20.83</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04166666666666666</v>
+        <v>4.17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1666666666666667</v>
+        <v>16.67</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03571428571428571</v>
+        <v>3.57</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -937,28 +949,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1758241758241758</v>
+        <v>17.58</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3296703296703297</v>
+        <v>32.97</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2032967032967033</v>
+        <v>20.33</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1153846153846154</v>
+        <v>11.54</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1428571428571428</v>
+        <v>14.29</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03296703296703297</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -971,28 +983,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3297872340425532</v>
+        <v>32.98</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3617021276595745</v>
+        <v>36.17</v>
       </c>
       <c r="E16" t="n">
-        <v>0.06914893617021277</v>
+        <v>6.91</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04787234042553191</v>
+        <v>4.79</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1595744680851064</v>
+        <v>15.96</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03191489361702127</v>
+        <v>3.19</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -1005,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5059523809523809</v>
+        <v>50.6</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2261904761904762</v>
+        <v>22.62</v>
       </c>
       <c r="E17" t="n">
-        <v>0.119047619047619</v>
+        <v>11.9</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07738095238095238</v>
+        <v>7.74</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07142857142857142</v>
+        <v>7.14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1026,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -1039,28 +1051,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2848837209302326</v>
+        <v>28.49</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2732558139534884</v>
+        <v>27.33</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2034883720930233</v>
+        <v>20.35</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09302325581395349</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1104651162790698</v>
+        <v>11.05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03488372093023256</v>
+        <v>3.49</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -1070,31 +1082,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2823529411764706</v>
+        <v>28.24</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1294117647058824</v>
+        <v>12.94</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1117647058823529</v>
+        <v>11.18</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1882352941176471</v>
+        <v>18.82</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07647058823529412</v>
+        <v>7.65</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1411764705882353</v>
+        <v>14.12</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07058823529411765</v>
+        <v>7.06</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -1104,31 +1116,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1325301204819277</v>
+        <v>13.25</v>
       </c>
       <c r="C20" t="n">
-        <v>0.427710843373494</v>
+        <v>42.77</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2108433734939759</v>
+        <v>21.08</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1144578313253012</v>
+        <v>11.45</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01807228915662651</v>
+        <v>1.81</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02409638554216868</v>
+        <v>2.41</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07228915662650602</v>
+        <v>7.23</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -1141,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3791208791208791</v>
+        <v>37.91</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3571428571428572</v>
+        <v>35.71</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1208791208791209</v>
+        <v>12.09</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1043956043956044</v>
+        <v>10.44</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02747252747252747</v>
+        <v>2.75</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01098901098901099</v>
+        <v>1.1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1172,31 +1184,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0119047619047619</v>
+        <v>1.19</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2261904761904762</v>
+        <v>22.62</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4047619047619048</v>
+        <v>40.48</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2321428571428572</v>
+        <v>23.21</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04166666666666666</v>
+        <v>4.17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03571428571428571</v>
+        <v>3.57</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04761904761904762</v>
+        <v>4.76</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -1206,31 +1218,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1162790697674419</v>
+        <v>11.63</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1511627906976744</v>
+        <v>15.12</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2790697674418605</v>
+        <v>27.91</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2616279069767442</v>
+        <v>26.16</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02325581395348837</v>
+        <v>2.33</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1220930232558139</v>
+        <v>12.21</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04651162790697674</v>
+        <v>4.65</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -1243,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3518518518518519</v>
+        <v>35.19</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3888888888888889</v>
+        <v>38.89</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1049382716049383</v>
+        <v>10.49</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0308641975308642</v>
+        <v>3.09</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1234567901234568</v>
+        <v>12.35</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1264,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -1274,31 +1286,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.03645833333333334</v>
+        <v>3.65</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2708333333333333</v>
+        <v>27.08</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2916666666666667</v>
+        <v>29.17</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1302083333333333</v>
+        <v>13.02</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02083333333333333</v>
+        <v>2.08</v>
       </c>
       <c r="G25" t="n">
-        <v>0.21875</v>
+        <v>21.88</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03125</v>
+        <v>3.12</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -1311,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3780487804878049</v>
+        <v>37.8</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1707317073170732</v>
+        <v>17.07</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09146341463414634</v>
+        <v>9.15</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1097560975609756</v>
+        <v>10.98</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1332,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -1345,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3518518518518519</v>
+        <v>35.19</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3888888888888889</v>
+        <v>38.89</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1049382716049383</v>
+        <v>10.49</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0308641975308642</v>
+        <v>3.09</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1234567901234568</v>
+        <v>12.35</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1366,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -1379,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2277777777777778</v>
+        <v>22.78</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5111111111111111</v>
+        <v>51.11</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1555555555555556</v>
+        <v>15.56</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08333333333333333</v>
+        <v>8.33</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02222222222222222</v>
+        <v>2.22</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1400,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -1413,28 +1425,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1436781609195402</v>
+        <v>14.37</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3620689655172414</v>
+        <v>36.21</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1781609195402299</v>
+        <v>17.82</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09195402298850575</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1781609195402299</v>
+        <v>17.82</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04597701149425287</v>
+        <v>4.6</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -1444,31 +1456,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04320987654320987</v>
+        <v>4.32</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1790123456790123</v>
+        <v>17.9</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2469135802469136</v>
+        <v>24.69</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2160493827160494</v>
+        <v>21.6</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07407407407407407</v>
+        <v>7.41</v>
       </c>
       <c r="G30" t="n">
-        <v>0.191358024691358</v>
+        <v>19.14</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04938271604938271</v>
+        <v>4.94</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1481,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.611764705882353</v>
+        <v>61.18</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1941176470588235</v>
+        <v>19.41</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1117647058823529</v>
+        <v>11.18</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01764705882352941</v>
+        <v>1.76</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06470588235294118</v>
+        <v>6.47</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1502,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -1512,31 +1524,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.05357142857142857</v>
+        <v>5.36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2083333333333333</v>
+        <v>20.83</v>
       </c>
       <c r="D32" t="n">
-        <v>0.244047619047619</v>
+        <v>24.4</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2857142857142857</v>
+        <v>28.57</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04166666666666666</v>
+        <v>4.17</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1071428571428571</v>
+        <v>10.71</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05952380952380952</v>
+        <v>5.95</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -1546,31 +1558,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1012658227848101</v>
+        <v>10.13</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2151898734177215</v>
+        <v>21.52</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3354430379746836</v>
+        <v>33.54</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1518987341772152</v>
+        <v>15.19</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08227848101265822</v>
+        <v>8.23</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05063291139240506</v>
+        <v>5.06</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06329113924050633</v>
+        <v>6.33</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -1583,28 +1595,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3588235294117647</v>
+        <v>35.88</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3058823529411765</v>
+        <v>30.59</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1823529411764706</v>
+        <v>18.24</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09411764705882353</v>
+        <v>9.41</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03529411764705882</v>
+        <v>3.53</v>
       </c>
       <c r="H34" t="n">
-        <v>0.02352941176470588</v>
+        <v>2.35</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -1614,31 +1626,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.04605263157894737</v>
+        <v>4.61</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2302631578947368</v>
+        <v>23.03</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3289473684210527</v>
+        <v>32.89</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1907894736842105</v>
+        <v>19.08</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1118421052631579</v>
+        <v>11.18</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03947368421052631</v>
+        <v>3.95</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05263157894736842</v>
+        <v>5.26</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -1648,31 +1660,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1012658227848101</v>
+        <v>10.13</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2151898734177215</v>
+        <v>21.52</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3354430379746836</v>
+        <v>33.54</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1518987341772152</v>
+        <v>15.19</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08227848101265822</v>
+        <v>8.23</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05063291139240506</v>
+        <v>5.06</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06329113924050633</v>
+        <v>6.33</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1685,28 +1697,28 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2941176470588235</v>
+        <v>29.41</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3647058823529412</v>
+        <v>36.47</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1176470588235294</v>
+        <v>11.76</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08823529411764706</v>
+        <v>8.82</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03529411764705882</v>
+        <v>3.53</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -1716,31 +1728,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01785714285714286</v>
+        <v>1.79</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2261904761904762</v>
+        <v>22.62</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3452380952380952</v>
+        <v>34.52</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1904761904761905</v>
+        <v>19.05</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08928571428571429</v>
+        <v>8.93</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1071428571428571</v>
+        <v>10.71</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02380952380952381</v>
+        <v>2.38</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -1750,31 +1762,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0449438202247191</v>
+        <v>4.49</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03370786516853932</v>
+        <v>3.37</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1404494382022472</v>
+        <v>14.04</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3651685393258427</v>
+        <v>36.52</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2022471910112359</v>
+        <v>20.22</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1797752808988764</v>
+        <v>17.98</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03370786516853932</v>
+        <v>3.37</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -1787,28 +1799,28 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4583333333333333</v>
+        <v>45.83</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3452380952380952</v>
+        <v>34.52</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1130952380952381</v>
+        <v>11.31</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02380952380952381</v>
+        <v>2.38</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03571428571428571</v>
+        <v>3.57</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02380952380952381</v>
+        <v>2.38</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -1821,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3166666666666667</v>
+        <v>31.67</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2388888888888889</v>
+        <v>23.89</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2277777777777778</v>
+        <v>22.78</v>
       </c>
       <c r="F41" t="n">
-        <v>0.09444444444444444</v>
+        <v>9.44</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1222222222222222</v>
+        <v>12.22</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1842,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -1855,19 +1867,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1419753086419753</v>
+        <v>14.2</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5185185185185185</v>
+        <v>51.85</v>
       </c>
       <c r="E42" t="n">
-        <v>0.228395061728395</v>
+        <v>22.84</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08641975308641975</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02469135802469136</v>
+        <v>2.47</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1876,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -1889,19 +1901,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2252747252747253</v>
+        <v>22.53</v>
       </c>
       <c r="D43" t="n">
-        <v>0.467032967032967</v>
+        <v>46.7</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1263736263736264</v>
+        <v>12.64</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07692307692307693</v>
+        <v>7.69</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1043956043956044</v>
+        <v>10.44</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1910,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -1923,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2666666666666667</v>
+        <v>26.67</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3833333333333334</v>
+        <v>38.33</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1777777777777778</v>
+        <v>17.78</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06111111111111111</v>
+        <v>6.11</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1111111111111111</v>
+        <v>11.11</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1944,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
@@ -1957,28 +1969,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1904761904761905</v>
+        <v>19.05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2559523809523809</v>
+        <v>25.6</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3095238095238095</v>
+        <v>30.95</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1011904761904762</v>
+        <v>10.12</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1071428571428571</v>
+        <v>10.71</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03571428571428571</v>
+        <v>3.57</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
@@ -1991,28 +2003,28 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5176470588235295</v>
+        <v>51.76</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1823529411764706</v>
+        <v>18.24</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07058823529411765</v>
+        <v>7.06</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02941176470588235</v>
+        <v>2.94</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1764705882352941</v>
+        <v>17.65</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02352941176470588</v>
+        <v>2.35</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
@@ -2025,28 +2037,28 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3556701030927835</v>
+        <v>35.57</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4123711340206185</v>
+        <v>41.24</v>
       </c>
       <c r="E47" t="n">
-        <v>0.05670103092783505</v>
+        <v>5.67</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04639175257731959</v>
+        <v>4.64</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1082474226804124</v>
+        <v>10.82</v>
       </c>
       <c r="H47" t="n">
-        <v>0.02061855670103093</v>
+        <v>2.06</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -2059,28 +2071,28 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4176470588235294</v>
+        <v>41.76</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3588235294117647</v>
+        <v>35.88</v>
       </c>
       <c r="E48" t="n">
-        <v>0.07058823529411765</v>
+        <v>7.06</v>
       </c>
       <c r="F48" t="n">
-        <v>0.04705882352941176</v>
+        <v>4.71</v>
       </c>
       <c r="G48" t="n">
-        <v>0.07058823529411765</v>
+        <v>7.06</v>
       </c>
       <c r="H48" t="n">
-        <v>0.03529411764705882</v>
+        <v>3.53</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
@@ -2093,28 +2105,28 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3294117647058823</v>
+        <v>32.94</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3411764705882353</v>
+        <v>34.12</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1235294117647059</v>
+        <v>12.35</v>
       </c>
       <c r="F49" t="n">
-        <v>0.07058823529411765</v>
+        <v>7.06</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1117647058823529</v>
+        <v>11.18</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02352941176470588</v>
+        <v>2.35</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -2127,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2722222222222222</v>
+        <v>27.22</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3222222222222222</v>
+        <v>32.22</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2333333333333333</v>
+        <v>23.33</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07222222222222222</v>
+        <v>7.22</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
@@ -2161,28 +2173,28 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3505747126436782</v>
+        <v>35.06</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2816091954022988</v>
+        <v>28.16</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2298850574712644</v>
+        <v>22.99</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04597701149425287</v>
+        <v>4.6</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05747126436781609</v>
+        <v>5.75</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03448275862068965</v>
+        <v>3.45</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
@@ -2192,31 +2204,31 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1111111111111111</v>
+        <v>11.11</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1604938271604938</v>
+        <v>16.05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2654320987654321</v>
+        <v>26.54</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2407407407407407</v>
+        <v>24.07</v>
       </c>
       <c r="F52" t="n">
-        <v>0.05555555555555555</v>
+        <v>5.56</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1049382716049383</v>
+        <v>10.49</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06172839506172839</v>
+        <v>6.17</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
@@ -2229,28 +2241,28 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4753086419753086</v>
+        <v>47.53</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3271604938271605</v>
+        <v>32.72</v>
       </c>
       <c r="E53" t="n">
-        <v>0.04938271604938271</v>
+        <v>4.94</v>
       </c>
       <c r="F53" t="n">
-        <v>0.04320987654320987</v>
+        <v>4.32</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09259259259259259</v>
+        <v>9.26</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01234567901234568</v>
+        <v>1.23</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
@@ -2260,31 +2272,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.05294117647058823</v>
+        <v>5.29</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1411764705882353</v>
+        <v>14.12</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3352941176470588</v>
+        <v>33.53</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1529411764705882</v>
+        <v>15.29</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08823529411764706</v>
+        <v>8.82</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1823529411764706</v>
+        <v>18.24</v>
       </c>
       <c r="H54" t="n">
-        <v>0.04705882352941176</v>
+        <v>4.71</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
@@ -2297,28 +2309,28 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4402173913043478</v>
+        <v>44.02</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3043478260869565</v>
+        <v>30.43</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09239130434782608</v>
+        <v>9.24</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02717391304347826</v>
+        <v>2.72</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1032608695652174</v>
+        <v>10.33</v>
       </c>
       <c r="H55" t="n">
-        <v>0.03260869565217391</v>
+        <v>3.26</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
@@ -2331,28 +2343,28 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2151162790697674</v>
+        <v>21.51</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3662790697674418</v>
+        <v>36.63</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1802325581395349</v>
+        <v>18.02</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0872093023255814</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1162790697674419</v>
+        <v>11.63</v>
       </c>
       <c r="H56" t="n">
-        <v>0.03488372093023256</v>
+        <v>3.49</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
@@ -2365,28 +2377,28 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1941176470588235</v>
+        <v>19.41</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01176470588235294</v>
+        <v>1.18</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02352941176470588</v>
+        <v>2.35</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1470588235294118</v>
+        <v>14.71</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02352941176470588</v>
+        <v>2.35</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
@@ -2396,31 +2408,31 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.05555555555555555</v>
+        <v>5.56</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2345679012345679</v>
+        <v>23.46</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2839506172839506</v>
+        <v>28.4</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2037037037037037</v>
+        <v>20.37</v>
       </c>
       <c r="F58" t="n">
-        <v>0.08024691358024691</v>
+        <v>8.02</v>
       </c>
       <c r="G58" t="n">
-        <v>0.09259259259259259</v>
+        <v>9.26</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04938271604938271</v>
+        <v>4.94</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
@@ -2433,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6158536585365854</v>
+        <v>61.59</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2439024390243902</v>
+        <v>24.39</v>
       </c>
       <c r="E59" t="n">
-        <v>0.07317073170731707</v>
+        <v>7.32</v>
       </c>
       <c r="F59" t="n">
-        <v>0.06707317073170732</v>
+        <v>6.71</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2454,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
@@ -2464,31 +2476,31 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.05357142857142857</v>
+        <v>5.36</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3928571428571428</v>
+        <v>39.29</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2142857142857143</v>
+        <v>21.43</v>
       </c>
       <c r="E60" t="n">
-        <v>0.07738095238095238</v>
+        <v>7.74</v>
       </c>
       <c r="F60" t="n">
-        <v>0.03571428571428571</v>
+        <v>3.57</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1785714285714286</v>
+        <v>17.86</v>
       </c>
       <c r="H60" t="n">
-        <v>0.04761904761904762</v>
+        <v>4.76</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
@@ -2498,31 +2510,31 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.26875</v>
+        <v>26.88</v>
       </c>
       <c r="D61" t="n">
-        <v>0.41875</v>
+        <v>41.88</v>
       </c>
       <c r="E61" t="n">
-        <v>0.125</v>
+        <v>12.5</v>
       </c>
       <c r="F61" t="n">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0375</v>
+        <v>3.75</v>
       </c>
       <c r="H61" t="n">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62">
@@ -2535,28 +2547,28 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2058823529411765</v>
+        <v>20.59</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="F62" t="n">
-        <v>0.07647058823529412</v>
+        <v>7.65</v>
       </c>
       <c r="G62" t="n">
-        <v>0.09411764705882353</v>
+        <v>9.41</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02352941176470588</v>
+        <v>2.35</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
@@ -2569,19 +2581,19 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6483516483516484</v>
+        <v>64.84</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2362637362637363</v>
+        <v>23.63</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07692307692307693</v>
+        <v>7.69</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01648351648351648</v>
+        <v>1.65</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02197802197802198</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2590,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
@@ -2600,31 +2612,31 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.103448275862069</v>
+        <v>10.34</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09770114942528736</v>
+        <v>9.77</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3448275862068966</v>
+        <v>34.48</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2471264367816092</v>
+        <v>24.71</v>
       </c>
       <c r="F64" t="n">
-        <v>0.08045977011494253</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06896551724137931</v>
+        <v>6.9</v>
       </c>
       <c r="H64" t="n">
-        <v>0.05747126436781609</v>
+        <v>5.75</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
@@ -2634,31 +2646,31 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1184210526315789</v>
+        <v>11.84</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2960526315789473</v>
+        <v>29.61</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3421052631578947</v>
+        <v>34.21</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1052631578947368</v>
+        <v>10.53</v>
       </c>
       <c r="F65" t="n">
-        <v>0.006578947368421052</v>
+        <v>0.66</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07894736842105263</v>
+        <v>7.89</v>
       </c>
       <c r="H65" t="n">
-        <v>0.05263157894736842</v>
+        <v>5.26</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66">
@@ -2671,28 +2683,28 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2202380952380952</v>
+        <v>22.02</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2976190476190476</v>
+        <v>29.76</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1666666666666667</v>
+        <v>16.67</v>
       </c>
       <c r="F66" t="n">
-        <v>0.119047619047619</v>
+        <v>11.9</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1726190476190476</v>
+        <v>17.26</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02380952380952381</v>
+        <v>2.38</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
@@ -2702,31 +2714,31 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1234567901234568</v>
+        <v>12.35</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1975308641975309</v>
+        <v>19.75</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2716049382716049</v>
+        <v>27.16</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1851851851851852</v>
+        <v>18.52</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06172839506172839</v>
+        <v>6.17</v>
       </c>
       <c r="G67" t="n">
-        <v>0.09876543209876543</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0.06172839506172839</v>
+        <v>6.17</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -433,16 +433,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="8.4" customWidth="1" min="3" max="3"/>
-    <col width="9.6" customWidth="1" min="4" max="4"/>
-    <col width="9.6" customWidth="1" min="5" max="5"/>
-    <col width="8.4" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="7.199999999999999" customWidth="1" min="9" max="9"/>
-    <col width="60" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="50" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="34" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Honda_HR-V_2022_</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dacia</t>
+          <t>Dacia_Jogger_2021_</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DS</t>
+          <t>DS_4_2022_Standard_</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -602,7 +602,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DS</t>
+          <t>DS_4_2022_Safety_Pack_</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -636,7 +636,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Volvo_C40_Recharge_2022_</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -670,7 +670,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mercedes-Benz</t>
+          <t>Mercedes-Benz_C-Class_2022_</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -704,7 +704,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Kia_EV6_2022_</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -738,7 +738,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VW</t>
+          <t>VW_Multivan_2022_</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -772,7 +772,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Peugeot</t>
+          <t>Peugeot_308_2022_</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -806,7 +806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORA</t>
+          <t>ORA_Funky_Cat_2022_</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -840,7 +840,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WEY</t>
+          <t>WEY_Coffee_01_2022_</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -874,7 +874,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Kia_Niro_2022_Safety_Pack_</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -908,7 +908,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Kia_Niro_2022_Standard_</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -942,7 +942,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Genesis</t>
+          <t>Genesis_GV60_2022_</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -976,7 +976,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Tesla_Model_Y_2022_</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1010,7 +1010,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>Land_Rover_Discovery_Sport_2022_</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1044,7 +1044,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHERY</t>
+          <t>CHERY_OMODA5_2022_</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1078,7 +1078,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VW_ID_Buzz_2022_</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1112,7 +1112,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VW_Touran_2022_</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1146,7 +1146,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lexus</t>
+          <t>Lexus_RX_2022_</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1180,7 +1180,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Škoda_Octavia_2022_</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1214,7 +1214,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>MG_4_Electric_2022_</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1248,7 +1248,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Ford_Ranger_2022_</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1282,7 +1282,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lucid</t>
+          <t>Lucid_Air_2022_</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1316,7 +1316,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jeep</t>
+          <t>Jeep_Grand Cherokee_2022_</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1350,7 +1350,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VW_Amarok_2022_</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1384,7 +1384,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mercedes-Benz</t>
+          <t>Mercedes-Benz_GLC_2022_</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1418,7 +1418,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Maxus</t>
+          <t>Maxus_MIFA_9_2022_</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1452,7 +1452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Ford_Puma_2022_</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1486,7 +1486,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>BMW_2_Series_Coupe_2022_</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1520,7 +1520,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Renault_Megane_E-Tech_2022_</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1554,7 +1554,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VW_Polo_2022_</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1588,7 +1588,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lexus</t>
+          <t>Lexus_NX_2022_</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1622,7 +1622,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VW_Taigo_2022_</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1656,7 +1656,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VW_Polo_2022_</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1690,7 +1690,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Nissan_Ariya_2022_</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1724,7 +1724,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>smart_1_2022_</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1758,7 +1758,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Hyundai_IONIQ_6_2022_</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1792,7 +1792,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Toyota_Corolla Cross_2022_</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1826,7 +1826,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>Range_Rover_Sport_2022_</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1860,7 +1860,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Isuzu</t>
+          <t>Isuzu_D-MAX_Crew_Cab_2022_</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1894,7 +1894,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>NIO_ET7_2022_</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1928,7 +1928,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>Range_Rover_2022_</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1962,7 +1962,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Renault_Austral_2022_</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1996,7 +1996,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DS</t>
+          <t>DS_9_2022_</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2030,7 +2030,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Tesla_Model_S_2022_</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2064,7 +2064,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Honda_Civic_2022_</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2098,7 +2098,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Nissan_X_Trail_2021_</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2132,7 +2132,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>WEY</t>
+          <t>WEY_Coffee_02_2022_</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2166,7 +2166,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Toyota_bZ4X_2022_</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2200,7 +2200,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Seat</t>
+          <t>SEAT_Ibiza_2022_</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2234,7 +2234,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>BMW_X1_2022_</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2268,7 +2268,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mobilize</t>
+          <t>Mobilize_Limo_2022_</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2302,7 +2302,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mercedes-EQ</t>
+          <t>Mercedes-EQ_EQE_2022_</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2336,7 +2336,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BYD</t>
+          <t>BYD_ATTO_3_2022_</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2370,7 +2370,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Citroën</t>
+          <t>Citroen_C5_X_2022_</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2404,7 +2404,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SEAT</t>
+          <t>SEAT_Arona_2022_</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2438,7 +2438,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MAZDA_CX-60_2022_</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2472,7 +2472,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>BMW_2_Series_Active_Tourer_2022_</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2506,7 +2506,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VW_Golf_2022_</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2540,7 +2540,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Kia</t>
+          <t>Kia_Sportage_2022_</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2574,7 +2574,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>BMW_i4_2022_</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2608,7 +2608,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Mercedes-Benz</t>
+          <t>Mercedes-Benz_T-Class_2022_</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2642,7 +2642,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Toyota_Aygo_X_2022_</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2676,7 +2676,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Alfa</t>
+          <t>Alfa_Romeo_Tonale_2022_</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2710,7 +2710,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Cupra</t>
+          <t>Cupra_Born_2022_</t>
         </is>
       </c>
       <c r="B67" t="n">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Honda_HR-V_2022_</t>
+          <t>Honda HR-V  2022</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dacia_Jogger_2021_</t>
+          <t>Dacia Jogger  2021</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -568,29 +568,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DS_4_2022_Standard_</t>
+          <t>Mercedes-Benz C-Class  2022</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>58.33</v>
+        <v>70.83</v>
       </c>
       <c r="D4" t="n">
-        <v>13.69</v>
+        <v>13.1</v>
       </c>
       <c r="E4" t="n">
-        <v>4.17</v>
+        <v>7.74</v>
       </c>
       <c r="F4" t="n">
-        <v>2.98</v>
+        <v>4.76</v>
       </c>
       <c r="G4" t="n">
-        <v>18.45</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
-        <v>2.38</v>
+        <v>1.19</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -602,29 +602,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DS_4_2022_Safety_Pack_</t>
+          <t>VW Multivan  2022</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="C5" t="n">
-        <v>58.33</v>
+        <v>17.98</v>
       </c>
       <c r="D5" t="n">
-        <v>13.69</v>
+        <v>37.08</v>
       </c>
       <c r="E5" t="n">
-        <v>4.17</v>
+        <v>12.36</v>
       </c>
       <c r="F5" t="n">
-        <v>2.98</v>
+        <v>7.87</v>
       </c>
       <c r="G5" t="n">
-        <v>18.45</v>
+        <v>12.92</v>
       </c>
       <c r="H5" t="n">
-        <v>2.38</v>
+        <v>5.62</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -636,29 +636,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Volvo_C40_Recharge_2022_</t>
+          <t>ORA Funky Cat  2022</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="C6" t="n">
-        <v>35.88</v>
+        <v>22.02</v>
       </c>
       <c r="D6" t="n">
-        <v>21.18</v>
+        <v>18.45</v>
       </c>
       <c r="E6" t="n">
-        <v>21.18</v>
+        <v>22.62</v>
       </c>
       <c r="F6" t="n">
-        <v>12.35</v>
+        <v>4.76</v>
       </c>
       <c r="G6" t="n">
-        <v>9.41</v>
+        <v>19.05</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -670,29 +670,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mercedes-Benz_C-Class_2022_</t>
+          <t>Kia Niro  2022</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>70.83</v>
+        <v>21.43</v>
       </c>
       <c r="D7" t="n">
-        <v>13.1</v>
+        <v>33.33</v>
       </c>
       <c r="E7" t="n">
-        <v>7.74</v>
+        <v>20.83</v>
       </c>
       <c r="F7" t="n">
-        <v>4.76</v>
+        <v>4.17</v>
       </c>
       <c r="G7" t="n">
-        <v>2.38</v>
+        <v>16.67</v>
       </c>
       <c r="H7" t="n">
-        <v>1.19</v>
+        <v>3.57</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -704,29 +704,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kia_EV6_2022_</t>
+          <t>Kia Niro  2022</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.890000000000001</v>
+        <v>21.43</v>
       </c>
       <c r="D8" t="n">
-        <v>33.52</v>
+        <v>33.33</v>
       </c>
       <c r="E8" t="n">
-        <v>23.63</v>
+        <v>20.83</v>
       </c>
       <c r="F8" t="n">
-        <v>9.34</v>
+        <v>4.17</v>
       </c>
       <c r="G8" t="n">
-        <v>21.43</v>
+        <v>16.67</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>3.57</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -738,29 +738,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VW_Multivan_2022_</t>
+          <t>Tesla Model Y  2022</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.18</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>17.98</v>
+        <v>32.98</v>
       </c>
       <c r="D9" t="n">
-        <v>37.08</v>
+        <v>36.17</v>
       </c>
       <c r="E9" t="n">
-        <v>12.36</v>
+        <v>6.91</v>
       </c>
       <c r="F9" t="n">
-        <v>7.87</v>
+        <v>4.79</v>
       </c>
       <c r="G9" t="n">
-        <v>12.92</v>
+        <v>15.96</v>
       </c>
       <c r="H9" t="n">
-        <v>5.62</v>
+        <v>3.19</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -772,29 +772,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Peugeot_308_2022_</t>
+          <t>Land Rover Discovery Sport  2022</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>18.29</v>
+        <v>50.6</v>
       </c>
       <c r="D10" t="n">
-        <v>22.56</v>
+        <v>22.62</v>
       </c>
       <c r="E10" t="n">
-        <v>14.02</v>
+        <v>11.9</v>
       </c>
       <c r="F10" t="n">
-        <v>11.59</v>
+        <v>7.74</v>
       </c>
       <c r="G10" t="n">
-        <v>31.1</v>
+        <v>7.14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -806,29 +806,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORA_Funky_Cat_2022_</t>
+          <t>VW ID Buzz  2022</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.52</v>
+        <v>28.24</v>
       </c>
       <c r="C11" t="n">
-        <v>22.02</v>
+        <v>12.94</v>
       </c>
       <c r="D11" t="n">
-        <v>18.45</v>
+        <v>11.18</v>
       </c>
       <c r="E11" t="n">
-        <v>22.62</v>
+        <v>18.82</v>
       </c>
       <c r="F11" t="n">
-        <v>4.76</v>
+        <v>7.65</v>
       </c>
       <c r="G11" t="n">
-        <v>19.05</v>
+        <v>14.12</v>
       </c>
       <c r="H11" t="n">
-        <v>3.57</v>
+        <v>7.06</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -840,29 +840,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WEY_Coffee_01_2022_</t>
+          <t>VW Touran  2022</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="C12" t="n">
-        <v>21.02</v>
+        <v>42.77</v>
       </c>
       <c r="D12" t="n">
-        <v>41.48</v>
+        <v>21.08</v>
       </c>
       <c r="E12" t="n">
-        <v>18.75</v>
+        <v>11.45</v>
       </c>
       <c r="F12" t="n">
-        <v>7.95</v>
+        <v>1.81</v>
       </c>
       <c r="G12" t="n">
-        <v>10.8</v>
+        <v>2.41</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>7.23</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -874,29 +874,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kia_Niro_2022_Safety_Pack_</t>
+          <t>Lexus RX  2022</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>21.43</v>
+        <v>37.91</v>
       </c>
       <c r="D13" t="n">
-        <v>33.33</v>
+        <v>35.71</v>
       </c>
       <c r="E13" t="n">
-        <v>20.83</v>
+        <v>12.09</v>
       </c>
       <c r="F13" t="n">
-        <v>4.17</v>
+        <v>10.44</v>
       </c>
       <c r="G13" t="n">
-        <v>16.67</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.57</v>
+        <v>1.1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -908,29 +908,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kia_Niro_2022_Standard_</t>
+          <t>Škoda Octavia  2022</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="C14" t="n">
-        <v>21.43</v>
+        <v>22.62</v>
       </c>
       <c r="D14" t="n">
-        <v>33.33</v>
+        <v>40.48</v>
       </c>
       <c r="E14" t="n">
-        <v>20.83</v>
+        <v>23.21</v>
       </c>
       <c r="F14" t="n">
         <v>4.17</v>
       </c>
       <c r="G14" t="n">
-        <v>16.67</v>
+        <v>3.57</v>
       </c>
       <c r="H14" t="n">
-        <v>3.57</v>
+        <v>4.76</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -942,29 +942,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Genesis_GV60_2022_</t>
+          <t>Ford Ranger  2022</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>17.58</v>
+        <v>35.19</v>
       </c>
       <c r="D15" t="n">
-        <v>32.97</v>
+        <v>38.89</v>
       </c>
       <c r="E15" t="n">
-        <v>20.33</v>
+        <v>10.49</v>
       </c>
       <c r="F15" t="n">
-        <v>11.54</v>
+        <v>3.09</v>
       </c>
       <c r="G15" t="n">
-        <v>14.29</v>
+        <v>12.35</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -976,29 +976,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tesla_Model_Y_2022_</t>
+          <t>Lucid Air  2022</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="C16" t="n">
-        <v>32.98</v>
+        <v>27.08</v>
       </c>
       <c r="D16" t="n">
-        <v>36.17</v>
+        <v>29.17</v>
       </c>
       <c r="E16" t="n">
-        <v>6.91</v>
+        <v>13.02</v>
       </c>
       <c r="F16" t="n">
-        <v>4.79</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
-        <v>15.96</v>
+        <v>21.88</v>
       </c>
       <c r="H16" t="n">
-        <v>3.19</v>
+        <v>3.12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1010,26 +1010,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Land_Rover_Discovery_Sport_2022_</t>
+          <t>Jeep Grand Cherokee  2022</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>50.6</v>
+        <v>37.8</v>
       </c>
       <c r="D17" t="n">
-        <v>22.62</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>11.9</v>
+        <v>17.07</v>
       </c>
       <c r="F17" t="n">
-        <v>7.74</v>
+        <v>9.15</v>
       </c>
       <c r="G17" t="n">
-        <v>7.14</v>
+        <v>10.98</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1044,29 +1044,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHERY_OMODA5_2022_</t>
+          <t>VW Amarok  2022</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>28.49</v>
+        <v>35.19</v>
       </c>
       <c r="D18" t="n">
-        <v>27.33</v>
+        <v>38.89</v>
       </c>
       <c r="E18" t="n">
-        <v>20.35</v>
+        <v>10.49</v>
       </c>
       <c r="F18" t="n">
-        <v>9.300000000000001</v>
+        <v>3.09</v>
       </c>
       <c r="G18" t="n">
-        <v>11.05</v>
+        <v>12.35</v>
       </c>
       <c r="H18" t="n">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1078,29 +1078,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VW_ID_Buzz_2022_</t>
+          <t>Mercedes-Benz GLC  2022</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.24</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>12.94</v>
+        <v>22.78</v>
       </c>
       <c r="D19" t="n">
-        <v>11.18</v>
+        <v>51.11</v>
       </c>
       <c r="E19" t="n">
-        <v>18.82</v>
+        <v>15.56</v>
       </c>
       <c r="F19" t="n">
-        <v>7.65</v>
+        <v>8.33</v>
       </c>
       <c r="G19" t="n">
-        <v>14.12</v>
+        <v>2.22</v>
       </c>
       <c r="H19" t="n">
-        <v>7.06</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1112,29 +1112,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VW_Touran_2022_</t>
+          <t>Ford Puma  2022</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.25</v>
+        <v>4.32</v>
       </c>
       <c r="C20" t="n">
-        <v>42.77</v>
+        <v>17.9</v>
       </c>
       <c r="D20" t="n">
-        <v>21.08</v>
+        <v>24.69</v>
       </c>
       <c r="E20" t="n">
-        <v>11.45</v>
+        <v>21.6</v>
       </c>
       <c r="F20" t="n">
-        <v>1.81</v>
+        <v>7.41</v>
       </c>
       <c r="G20" t="n">
-        <v>2.41</v>
+        <v>19.14</v>
       </c>
       <c r="H20" t="n">
-        <v>7.23</v>
+        <v>4.94</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1146,29 +1146,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lexus_RX_2022_</t>
+          <t>Renault Megane E-Tech  2022</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>5.36</v>
       </c>
       <c r="C21" t="n">
-        <v>37.91</v>
+        <v>20.83</v>
       </c>
       <c r="D21" t="n">
-        <v>35.71</v>
+        <v>24.4</v>
       </c>
       <c r="E21" t="n">
-        <v>12.09</v>
+        <v>28.57</v>
       </c>
       <c r="F21" t="n">
-        <v>10.44</v>
+        <v>4.17</v>
       </c>
       <c r="G21" t="n">
-        <v>2.75</v>
+        <v>10.71</v>
       </c>
       <c r="H21" t="n">
-        <v>1.1</v>
+        <v>5.95</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1180,29 +1180,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Škoda_Octavia_2022_</t>
+          <t>VW Polo  2022</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.19</v>
+        <v>10.13</v>
       </c>
       <c r="C22" t="n">
-        <v>22.62</v>
+        <v>21.52</v>
       </c>
       <c r="D22" t="n">
-        <v>40.48</v>
+        <v>33.54</v>
       </c>
       <c r="E22" t="n">
-        <v>23.21</v>
+        <v>15.19</v>
       </c>
       <c r="F22" t="n">
-        <v>4.17</v>
+        <v>8.23</v>
       </c>
       <c r="G22" t="n">
-        <v>3.57</v>
+        <v>5.06</v>
       </c>
       <c r="H22" t="n">
-        <v>4.76</v>
+        <v>6.33</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1214,29 +1214,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MG_4_Electric_2022_</t>
+          <t>Lexus NX  2022</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.63</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>15.12</v>
+        <v>35.88</v>
       </c>
       <c r="D23" t="n">
-        <v>27.91</v>
+        <v>30.59</v>
       </c>
       <c r="E23" t="n">
-        <v>26.16</v>
+        <v>18.24</v>
       </c>
       <c r="F23" t="n">
-        <v>2.33</v>
+        <v>9.41</v>
       </c>
       <c r="G23" t="n">
-        <v>12.21</v>
+        <v>3.53</v>
       </c>
       <c r="H23" t="n">
-        <v>4.65</v>
+        <v>2.35</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1248,29 +1248,29 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ford_Ranger_2022_</t>
+          <t>VW Taigo  2022</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>4.61</v>
       </c>
       <c r="C24" t="n">
-        <v>35.19</v>
+        <v>23.03</v>
       </c>
       <c r="D24" t="n">
-        <v>38.89</v>
+        <v>32.89</v>
       </c>
       <c r="E24" t="n">
-        <v>10.49</v>
+        <v>19.08</v>
       </c>
       <c r="F24" t="n">
-        <v>3.09</v>
+        <v>11.18</v>
       </c>
       <c r="G24" t="n">
-        <v>12.35</v>
+        <v>3.95</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1282,29 +1282,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lucid_Air_2022_</t>
+          <t>VW Polo  2022</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.65</v>
+        <v>10.13</v>
       </c>
       <c r="C25" t="n">
-        <v>27.08</v>
+        <v>21.52</v>
       </c>
       <c r="D25" t="n">
-        <v>29.17</v>
+        <v>33.54</v>
       </c>
       <c r="E25" t="n">
-        <v>13.02</v>
+        <v>15.19</v>
       </c>
       <c r="F25" t="n">
-        <v>2.08</v>
+        <v>8.23</v>
       </c>
       <c r="G25" t="n">
-        <v>21.88</v>
+        <v>5.06</v>
       </c>
       <c r="H25" t="n">
-        <v>3.12</v>
+        <v>6.33</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1316,29 +1316,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jeep_Grand Cherokee_2022_</t>
+          <t>Nissan Ariya  2022</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>37.8</v>
+        <v>29.41</v>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>36.47</v>
       </c>
       <c r="E26" t="n">
-        <v>17.07</v>
+        <v>11.76</v>
       </c>
       <c r="F26" t="n">
-        <v>9.15</v>
+        <v>8.82</v>
       </c>
       <c r="G26" t="n">
-        <v>10.98</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1350,29 +1350,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>VW_Amarok_2022_</t>
+          <t>Toyota Corolla Cross  2022</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>35.19</v>
+        <v>45.83</v>
       </c>
       <c r="D27" t="n">
-        <v>38.89</v>
+        <v>34.52</v>
       </c>
       <c r="E27" t="n">
-        <v>10.49</v>
+        <v>11.31</v>
       </c>
       <c r="F27" t="n">
-        <v>3.09</v>
+        <v>2.38</v>
       </c>
       <c r="G27" t="n">
-        <v>12.35</v>
+        <v>3.57</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1384,26 +1384,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mercedes-Benz_GLC_2022_</t>
+          <t>Range Rover Sport  2022</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="D28" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="E28" t="n">
         <v>22.78</v>
       </c>
-      <c r="D28" t="n">
-        <v>51.11</v>
-      </c>
-      <c r="E28" t="n">
-        <v>15.56</v>
-      </c>
       <c r="F28" t="n">
-        <v>8.33</v>
+        <v>9.44</v>
       </c>
       <c r="G28" t="n">
-        <v>2.22</v>
+        <v>12.22</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1418,29 +1418,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Maxus_MIFA_9_2022_</t>
+          <t>Isuzu D-MAX Crew Cab  2022</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>14.37</v>
+        <v>14.2</v>
       </c>
       <c r="D29" t="n">
-        <v>36.21</v>
+        <v>51.85</v>
       </c>
       <c r="E29" t="n">
-        <v>17.82</v>
+        <v>22.84</v>
       </c>
       <c r="F29" t="n">
-        <v>9.199999999999999</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>17.82</v>
+        <v>2.47</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1452,29 +1452,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ford_Puma_2022_</t>
+          <t>Range Rover  2022</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.32</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>17.9</v>
+        <v>26.67</v>
       </c>
       <c r="D30" t="n">
-        <v>24.69</v>
+        <v>38.33</v>
       </c>
       <c r="E30" t="n">
-        <v>21.6</v>
+        <v>17.78</v>
       </c>
       <c r="F30" t="n">
-        <v>7.41</v>
+        <v>6.11</v>
       </c>
       <c r="G30" t="n">
-        <v>19.14</v>
+        <v>11.11</v>
       </c>
       <c r="H30" t="n">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1486,29 +1486,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BMW_2_Series_Coupe_2022_</t>
+          <t>Renault Austral  2022</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>61.18</v>
+        <v>19.05</v>
       </c>
       <c r="D31" t="n">
-        <v>19.41</v>
+        <v>25.6</v>
       </c>
       <c r="E31" t="n">
-        <v>11.18</v>
+        <v>30.95</v>
       </c>
       <c r="F31" t="n">
-        <v>1.76</v>
+        <v>10.12</v>
       </c>
       <c r="G31" t="n">
-        <v>6.47</v>
+        <v>10.71</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1520,29 +1520,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Renault_Megane_E-Tech_2022_</t>
+          <t>Tesla Model S  2022</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>20.83</v>
+        <v>35.57</v>
       </c>
       <c r="D32" t="n">
-        <v>24.4</v>
+        <v>41.24</v>
       </c>
       <c r="E32" t="n">
-        <v>28.57</v>
+        <v>5.67</v>
       </c>
       <c r="F32" t="n">
-        <v>4.17</v>
+        <v>4.64</v>
       </c>
       <c r="G32" t="n">
-        <v>10.71</v>
+        <v>10.82</v>
       </c>
       <c r="H32" t="n">
-        <v>5.95</v>
+        <v>2.06</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1554,29 +1554,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>VW_Polo_2022_</t>
+          <t>Honda Civic  2022</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.13</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>21.52</v>
+        <v>41.76</v>
       </c>
       <c r="D33" t="n">
-        <v>33.54</v>
+        <v>35.88</v>
       </c>
       <c r="E33" t="n">
-        <v>15.19</v>
+        <v>7.06</v>
       </c>
       <c r="F33" t="n">
-        <v>8.23</v>
+        <v>4.71</v>
       </c>
       <c r="G33" t="n">
-        <v>5.06</v>
+        <v>7.06</v>
       </c>
       <c r="H33" t="n">
-        <v>6.33</v>
+        <v>3.53</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1588,26 +1588,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lexus_NX_2022_</t>
+          <t>Nissan X Trail  2021</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>35.88</v>
+        <v>32.94</v>
       </c>
       <c r="D34" t="n">
-        <v>30.59</v>
+        <v>34.12</v>
       </c>
       <c r="E34" t="n">
-        <v>18.24</v>
+        <v>12.35</v>
       </c>
       <c r="F34" t="n">
-        <v>9.41</v>
+        <v>7.06</v>
       </c>
       <c r="G34" t="n">
-        <v>3.53</v>
+        <v>11.18</v>
       </c>
       <c r="H34" t="n">
         <v>2.35</v>
@@ -1622,29 +1622,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VW_Taigo_2022_</t>
+          <t>SEAT Ibiza  2022</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.61</v>
+        <v>11.11</v>
       </c>
       <c r="C35" t="n">
-        <v>23.03</v>
+        <v>16.05</v>
       </c>
       <c r="D35" t="n">
-        <v>32.89</v>
+        <v>26.54</v>
       </c>
       <c r="E35" t="n">
-        <v>19.08</v>
+        <v>24.07</v>
       </c>
       <c r="F35" t="n">
-        <v>11.18</v>
+        <v>5.56</v>
       </c>
       <c r="G35" t="n">
-        <v>3.95</v>
+        <v>10.49</v>
       </c>
       <c r="H35" t="n">
-        <v>5.26</v>
+        <v>6.17</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1656,29 +1656,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>VW_Polo_2022_</t>
+          <t>Mobilize Limo  2022</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10.13</v>
+        <v>5.29</v>
       </c>
       <c r="C36" t="n">
-        <v>21.52</v>
+        <v>14.12</v>
       </c>
       <c r="D36" t="n">
-        <v>33.54</v>
+        <v>33.53</v>
       </c>
       <c r="E36" t="n">
-        <v>15.19</v>
+        <v>15.29</v>
       </c>
       <c r="F36" t="n">
-        <v>8.23</v>
+        <v>8.82</v>
       </c>
       <c r="G36" t="n">
-        <v>5.06</v>
+        <v>18.24</v>
       </c>
       <c r="H36" t="n">
-        <v>6.33</v>
+        <v>4.71</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1690,29 +1690,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nissan_Ariya_2022_</t>
+          <t>Mercedes-EQ EQE  2022</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>29.41</v>
+        <v>44.02</v>
       </c>
       <c r="D37" t="n">
-        <v>36.47</v>
+        <v>30.43</v>
       </c>
       <c r="E37" t="n">
-        <v>11.76</v>
+        <v>9.24</v>
       </c>
       <c r="F37" t="n">
-        <v>8.82</v>
+        <v>2.72</v>
       </c>
       <c r="G37" t="n">
-        <v>10</v>
+        <v>10.33</v>
       </c>
       <c r="H37" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1724,29 +1724,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>smart_1_2022_</t>
+          <t>SEAT Arona  2022</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.79</v>
+        <v>5.56</v>
       </c>
       <c r="C38" t="n">
-        <v>22.62</v>
+        <v>23.46</v>
       </c>
       <c r="D38" t="n">
-        <v>34.52</v>
+        <v>28.4</v>
       </c>
       <c r="E38" t="n">
-        <v>19.05</v>
+        <v>20.37</v>
       </c>
       <c r="F38" t="n">
-        <v>8.93</v>
+        <v>8.02</v>
       </c>
       <c r="G38" t="n">
-        <v>10.71</v>
+        <v>9.26</v>
       </c>
       <c r="H38" t="n">
-        <v>2.38</v>
+        <v>4.94</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1758,29 +1758,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hyundai_IONIQ_6_2022_</t>
+          <t>VW Golf  2022</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.49</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>3.37</v>
+        <v>26.88</v>
       </c>
       <c r="D39" t="n">
-        <v>14.04</v>
+        <v>41.88</v>
       </c>
       <c r="E39" t="n">
-        <v>36.52</v>
+        <v>12.5</v>
       </c>
       <c r="F39" t="n">
-        <v>20.22</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
-        <v>17.98</v>
+        <v>3.75</v>
       </c>
       <c r="H39" t="n">
-        <v>3.37</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1792,29 +1792,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Toyota_Corolla Cross_2022_</t>
+          <t>Kia Sportage  2022</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>45.83</v>
+        <v>40</v>
       </c>
       <c r="D40" t="n">
-        <v>34.52</v>
+        <v>20.59</v>
       </c>
       <c r="E40" t="n">
-        <v>11.31</v>
+        <v>20</v>
       </c>
       <c r="F40" t="n">
-        <v>2.38</v>
+        <v>7.65</v>
       </c>
       <c r="G40" t="n">
-        <v>3.57</v>
+        <v>9.41</v>
       </c>
       <c r="H40" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1826,29 +1826,29 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Range_Rover_Sport_2022_</t>
+          <t>Mercedes-Benz T-Class  2022</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="C41" t="n">
-        <v>31.67</v>
+        <v>9.77</v>
       </c>
       <c r="D41" t="n">
-        <v>23.89</v>
+        <v>34.48</v>
       </c>
       <c r="E41" t="n">
-        <v>22.78</v>
+        <v>24.71</v>
       </c>
       <c r="F41" t="n">
-        <v>9.44</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>12.22</v>
+        <v>6.9</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1860,29 +1860,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Isuzu_D-MAX_Crew_Cab_2022_</t>
+          <t>Toyota Aygo X  2022</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>11.84</v>
       </c>
       <c r="C42" t="n">
-        <v>14.2</v>
+        <v>29.61</v>
       </c>
       <c r="D42" t="n">
-        <v>51.85</v>
+        <v>34.21</v>
       </c>
       <c r="E42" t="n">
-        <v>22.84</v>
+        <v>10.53</v>
       </c>
       <c r="F42" t="n">
-        <v>8.640000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="G42" t="n">
-        <v>2.47</v>
+        <v>7.89</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1894,29 +1894,29 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NIO_ET7_2022_</t>
+          <t>Alfa Romeo Tonale  2022</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>22.53</v>
+        <v>22.02</v>
       </c>
       <c r="D43" t="n">
-        <v>46.7</v>
+        <v>29.76</v>
       </c>
       <c r="E43" t="n">
-        <v>12.64</v>
+        <v>16.67</v>
       </c>
       <c r="F43" t="n">
-        <v>7.69</v>
+        <v>11.9</v>
       </c>
       <c r="G43" t="n">
-        <v>10.44</v>
+        <v>17.26</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1928,816 +1928,34 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Range_Rover_2022_</t>
+          <t>Cupra Born  2022</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>12.35</v>
       </c>
       <c r="C44" t="n">
-        <v>26.67</v>
+        <v>19.75</v>
       </c>
       <c r="D44" t="n">
-        <v>38.33</v>
+        <v>27.16</v>
       </c>
       <c r="E44" t="n">
-        <v>17.78</v>
+        <v>18.52</v>
       </c>
       <c r="F44" t="n">
-        <v>6.11</v>
+        <v>6.17</v>
       </c>
       <c r="G44" t="n">
-        <v>11.11</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Renault_Austral_2022_</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>19.05</v>
-      </c>
-      <c r="D45" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="E45" t="n">
-        <v>30.95</v>
-      </c>
-      <c r="F45" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="G45" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>DS_9_2022_</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>51.76</v>
-      </c>
-      <c r="D46" t="n">
-        <v>18.24</v>
-      </c>
-      <c r="E46" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G46" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Tesla_Model_S_2022_</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>35.57</v>
-      </c>
-      <c r="D47" t="n">
-        <v>41.24</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="G47" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Honda_Civic_2022_</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="D48" t="n">
-        <v>35.88</v>
-      </c>
-      <c r="E48" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="G48" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Nissan_X_Trail_2021_</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>32.94</v>
-      </c>
-      <c r="D49" t="n">
-        <v>34.12</v>
-      </c>
-      <c r="E49" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="F49" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="G49" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>WEY_Coffee_02_2022_</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>27.22</v>
-      </c>
-      <c r="D50" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="E50" t="n">
-        <v>23.33</v>
-      </c>
-      <c r="F50" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="G50" t="n">
-        <v>10</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Toyota_bZ4X_2022_</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>35.06</v>
-      </c>
-      <c r="D51" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="E51" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G51" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="H51" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>SEAT_Ibiza_2022_</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="C52" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="D52" t="n">
-        <v>26.54</v>
-      </c>
-      <c r="E52" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="F52" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="G52" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="H52" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>BMW_X1_2022_</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>47.53</v>
-      </c>
-      <c r="D53" t="n">
-        <v>32.72</v>
-      </c>
-      <c r="E53" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="F53" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="G53" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Mobilize_Limo_2022_</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="D54" t="n">
-        <v>33.53</v>
-      </c>
-      <c r="E54" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="F54" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="G54" t="n">
-        <v>18.24</v>
-      </c>
-      <c r="H54" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Mercedes-EQ_EQE_2022_</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>44.02</v>
-      </c>
-      <c r="D55" t="n">
-        <v>30.43</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="G55" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>BYD_ATTO_3_2022_</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="D56" t="n">
-        <v>36.63</v>
-      </c>
-      <c r="E56" t="n">
-        <v>18.02</v>
-      </c>
-      <c r="F56" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="G56" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Citroen_C5_X_2022_</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>60</v>
-      </c>
-      <c r="D57" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G57" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>SEAT_Arona_2022_</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="C58" t="n">
-        <v>23.46</v>
-      </c>
-      <c r="D58" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="E58" t="n">
-        <v>20.37</v>
-      </c>
-      <c r="F58" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="G58" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MAZDA_CX-60_2022_</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>61.59</v>
-      </c>
-      <c r="D59" t="n">
-        <v>24.39</v>
-      </c>
-      <c r="E59" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="F59" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>BMW_2_Series_Active_Tourer_2022_</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="C60" t="n">
-        <v>39.29</v>
-      </c>
-      <c r="D60" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="E60" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="G60" t="n">
-        <v>17.86</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>VW_Golf_2022_</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>5</v>
-      </c>
-      <c r="C61" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="D61" t="n">
-        <v>41.88</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F61" t="n">
-        <v>5</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H61" t="n">
-        <v>5</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Kia_Sportage_2022_</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>40</v>
-      </c>
-      <c r="D62" t="n">
-        <v>20.59</v>
-      </c>
-      <c r="E62" t="n">
-        <v>20</v>
-      </c>
-      <c r="F62" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="G62" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>BMW_i4_2022_</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>64.84</v>
-      </c>
-      <c r="D63" t="n">
-        <v>23.63</v>
-      </c>
-      <c r="E63" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Mercedes-Benz_T-Class_2022_</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="C64" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="D64" t="n">
-        <v>34.48</v>
-      </c>
-      <c r="E64" t="n">
-        <v>24.71</v>
-      </c>
-      <c r="F64" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="G64" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H64" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Toyota_Aygo_X_2022_</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="C65" t="n">
-        <v>29.61</v>
-      </c>
-      <c r="D65" t="n">
-        <v>34.21</v>
-      </c>
-      <c r="E65" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G65" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="H65" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Alfa_Romeo_Tonale_2022_</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="D66" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="E66" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="F66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="G66" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Cupra_Born_2022_</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="C67" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="D67" t="n">
-        <v>27.16</v>
-      </c>
-      <c r="E67" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="F67" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="G67" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Honda HR-V  2022</t>
+          <t xml:space="preserve">Honda HR V 2022 </t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dacia Jogger  2021</t>
+          <t xml:space="preserve">Dacia Jogger 2021 </t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -568,29 +568,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mercedes-Benz C-Class  2022</t>
+          <t xml:space="preserve">DS 4 2022 Standard </t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>70.83</v>
+        <v>58.33</v>
       </c>
       <c r="D4" t="n">
-        <v>13.1</v>
+        <v>13.69</v>
       </c>
       <c r="E4" t="n">
-        <v>7.74</v>
+        <v>4.17</v>
       </c>
       <c r="F4" t="n">
-        <v>4.76</v>
+        <v>2.98</v>
       </c>
       <c r="G4" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="H4" t="n">
         <v>2.38</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.19</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -602,29 +602,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VW Multivan  2022</t>
+          <t xml:space="preserve">DS 4 2022 Safety Pack </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.18</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17.98</v>
+        <v>58.33</v>
       </c>
       <c r="D5" t="n">
-        <v>37.08</v>
+        <v>13.69</v>
       </c>
       <c r="E5" t="n">
-        <v>12.36</v>
+        <v>4.17</v>
       </c>
       <c r="F5" t="n">
-        <v>7.87</v>
+        <v>2.98</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92</v>
+        <v>18.45</v>
       </c>
       <c r="H5" t="n">
-        <v>5.62</v>
+        <v>2.38</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -636,29 +636,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORA Funky Cat  2022</t>
+          <t xml:space="preserve">Volvo C40 Recharge 2022 </t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.52</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>22.02</v>
+        <v>35.88</v>
       </c>
       <c r="D6" t="n">
-        <v>18.45</v>
+        <v>21.18</v>
       </c>
       <c r="E6" t="n">
-        <v>22.62</v>
+        <v>21.18</v>
       </c>
       <c r="F6" t="n">
-        <v>4.76</v>
+        <v>12.35</v>
       </c>
       <c r="G6" t="n">
-        <v>19.05</v>
+        <v>9.41</v>
       </c>
       <c r="H6" t="n">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -670,29 +670,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kia Niro  2022</t>
+          <t xml:space="preserve">Mercedes Benz C Class 2022 </t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>21.43</v>
+        <v>70.83</v>
       </c>
       <c r="D7" t="n">
-        <v>33.33</v>
+        <v>13.1</v>
       </c>
       <c r="E7" t="n">
-        <v>20.83</v>
+        <v>7.74</v>
       </c>
       <c r="F7" t="n">
-        <v>4.17</v>
+        <v>4.76</v>
       </c>
       <c r="G7" t="n">
-        <v>16.67</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
-        <v>3.57</v>
+        <v>1.19</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -704,29 +704,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kia Niro  2022</t>
+          <t xml:space="preserve">Kia EV6 2022 </t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="G8" t="n">
         <v>21.43</v>
       </c>
-      <c r="D8" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20.83</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="G8" t="n">
-        <v>16.67</v>
-      </c>
       <c r="H8" t="n">
-        <v>3.57</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -738,29 +738,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tesla Model Y  2022</t>
+          <t xml:space="preserve">VW Multivan 2022 </t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="C9" t="n">
-        <v>32.98</v>
+        <v>17.98</v>
       </c>
       <c r="D9" t="n">
-        <v>36.17</v>
+        <v>37.08</v>
       </c>
       <c r="E9" t="n">
-        <v>6.91</v>
+        <v>12.36</v>
       </c>
       <c r="F9" t="n">
-        <v>4.79</v>
+        <v>7.87</v>
       </c>
       <c r="G9" t="n">
-        <v>15.96</v>
+        <v>12.92</v>
       </c>
       <c r="H9" t="n">
-        <v>3.19</v>
+        <v>5.62</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -772,29 +772,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Land Rover Discovery Sport  2022</t>
+          <t xml:space="preserve">Peugeot 308 2022 </t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>50.6</v>
+        <v>18.29</v>
       </c>
       <c r="D10" t="n">
-        <v>22.62</v>
+        <v>22.56</v>
       </c>
       <c r="E10" t="n">
-        <v>11.9</v>
+        <v>14.02</v>
       </c>
       <c r="F10" t="n">
-        <v>7.74</v>
+        <v>11.59</v>
       </c>
       <c r="G10" t="n">
-        <v>7.14</v>
+        <v>31.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -806,29 +806,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VW ID Buzz  2022</t>
+          <t xml:space="preserve">ORA Funky Cat 2022 </t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.24</v>
+        <v>9.52</v>
       </c>
       <c r="C11" t="n">
-        <v>12.94</v>
+        <v>22.02</v>
       </c>
       <c r="D11" t="n">
-        <v>11.18</v>
+        <v>18.45</v>
       </c>
       <c r="E11" t="n">
-        <v>18.82</v>
+        <v>22.62</v>
       </c>
       <c r="F11" t="n">
-        <v>7.65</v>
+        <v>4.76</v>
       </c>
       <c r="G11" t="n">
-        <v>14.12</v>
+        <v>19.05</v>
       </c>
       <c r="H11" t="n">
-        <v>7.06</v>
+        <v>3.57</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -840,29 +840,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VW Touran  2022</t>
+          <t xml:space="preserve">WEY Coffee 01 2022 </t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.25</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>42.77</v>
+        <v>21.02</v>
       </c>
       <c r="D12" t="n">
-        <v>21.08</v>
+        <v>41.48</v>
       </c>
       <c r="E12" t="n">
-        <v>11.45</v>
+        <v>18.75</v>
       </c>
       <c r="F12" t="n">
-        <v>1.81</v>
+        <v>7.95</v>
       </c>
       <c r="G12" t="n">
-        <v>2.41</v>
+        <v>10.8</v>
       </c>
       <c r="H12" t="n">
-        <v>7.23</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -874,29 +874,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lexus RX  2022</t>
+          <t xml:space="preserve">Kia Niro 2022 Safety Pack </t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>37.91</v>
+        <v>21.43</v>
       </c>
       <c r="D13" t="n">
-        <v>35.71</v>
+        <v>33.33</v>
       </c>
       <c r="E13" t="n">
-        <v>12.09</v>
+        <v>20.83</v>
       </c>
       <c r="F13" t="n">
-        <v>10.44</v>
+        <v>4.17</v>
       </c>
       <c r="G13" t="n">
-        <v>2.75</v>
+        <v>16.67</v>
       </c>
       <c r="H13" t="n">
-        <v>1.1</v>
+        <v>3.57</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -908,29 +908,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Škoda Octavia  2022</t>
+          <t xml:space="preserve">Kia Niro 2022 Standard </t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>22.62</v>
+        <v>21.43</v>
       </c>
       <c r="D14" t="n">
-        <v>40.48</v>
+        <v>33.33</v>
       </c>
       <c r="E14" t="n">
-        <v>23.21</v>
+        <v>20.83</v>
       </c>
       <c r="F14" t="n">
         <v>4.17</v>
       </c>
       <c r="G14" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.57</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.76</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -942,29 +942,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ford Ranger  2022</t>
+          <t xml:space="preserve">Genesis GV60 2022 </t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>35.19</v>
+        <v>17.58</v>
       </c>
       <c r="D15" t="n">
-        <v>38.89</v>
+        <v>32.97</v>
       </c>
       <c r="E15" t="n">
-        <v>10.49</v>
+        <v>20.33</v>
       </c>
       <c r="F15" t="n">
-        <v>3.09</v>
+        <v>11.54</v>
       </c>
       <c r="G15" t="n">
-        <v>12.35</v>
+        <v>14.29</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -976,29 +976,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lucid Air  2022</t>
+          <t xml:space="preserve">Tesla Model Y 2022 </t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>27.08</v>
+        <v>32.98</v>
       </c>
       <c r="D16" t="n">
-        <v>29.17</v>
+        <v>36.17</v>
       </c>
       <c r="E16" t="n">
-        <v>13.02</v>
+        <v>6.91</v>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>4.79</v>
       </c>
       <c r="G16" t="n">
-        <v>21.88</v>
+        <v>15.96</v>
       </c>
       <c r="H16" t="n">
-        <v>3.12</v>
+        <v>3.19</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1010,26 +1010,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jeep Grand Cherokee  2022</t>
+          <t xml:space="preserve">Land Rover Discovery Sport 2022 </t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>37.8</v>
+        <v>50.6</v>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>22.62</v>
       </c>
       <c r="E17" t="n">
-        <v>17.07</v>
+        <v>11.9</v>
       </c>
       <c r="F17" t="n">
-        <v>9.15</v>
+        <v>7.74</v>
       </c>
       <c r="G17" t="n">
-        <v>10.98</v>
+        <v>7.14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1044,29 +1044,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VW Amarok  2022</t>
+          <t xml:space="preserve">CHERY OMODA5 2022 </t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>35.19</v>
+        <v>28.49</v>
       </c>
       <c r="D18" t="n">
-        <v>38.89</v>
+        <v>27.33</v>
       </c>
       <c r="E18" t="n">
-        <v>10.49</v>
+        <v>20.35</v>
       </c>
       <c r="F18" t="n">
-        <v>3.09</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>12.35</v>
+        <v>11.05</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1078,29 +1078,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mercedes-Benz GLC  2022</t>
+          <t xml:space="preserve">VW ID Buzz 2022 </t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>28.24</v>
       </c>
       <c r="C19" t="n">
-        <v>22.78</v>
+        <v>12.94</v>
       </c>
       <c r="D19" t="n">
-        <v>51.11</v>
+        <v>11.18</v>
       </c>
       <c r="E19" t="n">
-        <v>15.56</v>
+        <v>18.82</v>
       </c>
       <c r="F19" t="n">
-        <v>8.33</v>
+        <v>7.65</v>
       </c>
       <c r="G19" t="n">
-        <v>2.22</v>
+        <v>14.12</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>7.06</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1112,29 +1112,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ford Puma  2022</t>
+          <t xml:space="preserve">VW Touran 2022 </t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.32</v>
+        <v>13.25</v>
       </c>
       <c r="C20" t="n">
-        <v>17.9</v>
+        <v>42.77</v>
       </c>
       <c r="D20" t="n">
-        <v>24.69</v>
+        <v>21.08</v>
       </c>
       <c r="E20" t="n">
-        <v>21.6</v>
+        <v>11.45</v>
       </c>
       <c r="F20" t="n">
-        <v>7.41</v>
+        <v>1.81</v>
       </c>
       <c r="G20" t="n">
-        <v>19.14</v>
+        <v>2.41</v>
       </c>
       <c r="H20" t="n">
-        <v>4.94</v>
+        <v>7.23</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1146,29 +1146,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renault Megane E-Tech  2022</t>
+          <t xml:space="preserve">Lexus RX 2022 </t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>20.83</v>
+        <v>37.91</v>
       </c>
       <c r="D21" t="n">
-        <v>24.4</v>
+        <v>35.71</v>
       </c>
       <c r="E21" t="n">
-        <v>28.57</v>
+        <v>12.09</v>
       </c>
       <c r="F21" t="n">
-        <v>4.17</v>
+        <v>10.44</v>
       </c>
       <c r="G21" t="n">
-        <v>10.71</v>
+        <v>2.75</v>
       </c>
       <c r="H21" t="n">
-        <v>5.95</v>
+        <v>1.1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1180,29 +1180,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>VW Polo  2022</t>
+          <t xml:space="preserve">Škoda Octavia 2022 </t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.13</v>
+        <v>1.19</v>
       </c>
       <c r="C22" t="n">
-        <v>21.52</v>
+        <v>22.62</v>
       </c>
       <c r="D22" t="n">
-        <v>33.54</v>
+        <v>40.48</v>
       </c>
       <c r="E22" t="n">
-        <v>15.19</v>
+        <v>23.21</v>
       </c>
       <c r="F22" t="n">
-        <v>8.23</v>
+        <v>4.17</v>
       </c>
       <c r="G22" t="n">
-        <v>5.06</v>
+        <v>3.57</v>
       </c>
       <c r="H22" t="n">
-        <v>6.33</v>
+        <v>4.76</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1214,29 +1214,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lexus NX  2022</t>
+          <t xml:space="preserve">MG 4 Electric 2022 </t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>11.63</v>
       </c>
       <c r="C23" t="n">
-        <v>35.88</v>
+        <v>15.12</v>
       </c>
       <c r="D23" t="n">
-        <v>30.59</v>
+        <v>27.91</v>
       </c>
       <c r="E23" t="n">
-        <v>18.24</v>
+        <v>26.16</v>
       </c>
       <c r="F23" t="n">
-        <v>9.41</v>
+        <v>2.33</v>
       </c>
       <c r="G23" t="n">
-        <v>3.53</v>
+        <v>12.21</v>
       </c>
       <c r="H23" t="n">
-        <v>2.35</v>
+        <v>4.65</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1248,29 +1248,29 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>VW Taigo  2022</t>
+          <t xml:space="preserve">Ford Ranger 2022 </t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.61</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>23.03</v>
+        <v>35.19</v>
       </c>
       <c r="D24" t="n">
-        <v>32.89</v>
+        <v>38.89</v>
       </c>
       <c r="E24" t="n">
-        <v>19.08</v>
+        <v>10.49</v>
       </c>
       <c r="F24" t="n">
-        <v>11.18</v>
+        <v>3.09</v>
       </c>
       <c r="G24" t="n">
-        <v>3.95</v>
+        <v>12.35</v>
       </c>
       <c r="H24" t="n">
-        <v>5.26</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1282,29 +1282,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>VW Polo  2022</t>
+          <t xml:space="preserve">Lucid Air 2022 </t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.13</v>
+        <v>3.65</v>
       </c>
       <c r="C25" t="n">
-        <v>21.52</v>
+        <v>27.08</v>
       </c>
       <c r="D25" t="n">
-        <v>33.54</v>
+        <v>29.17</v>
       </c>
       <c r="E25" t="n">
-        <v>15.19</v>
+        <v>13.02</v>
       </c>
       <c r="F25" t="n">
-        <v>8.23</v>
+        <v>2.08</v>
       </c>
       <c r="G25" t="n">
-        <v>5.06</v>
+        <v>21.88</v>
       </c>
       <c r="H25" t="n">
-        <v>6.33</v>
+        <v>3.12</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1316,29 +1316,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nissan Ariya  2022</t>
+          <t xml:space="preserve">Jeep Grand Cherokee 2022 </t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>29.41</v>
+        <v>37.8</v>
       </c>
       <c r="D26" t="n">
-        <v>36.47</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>11.76</v>
+        <v>17.07</v>
       </c>
       <c r="F26" t="n">
-        <v>8.82</v>
+        <v>9.15</v>
       </c>
       <c r="G26" t="n">
-        <v>10</v>
+        <v>10.98</v>
       </c>
       <c r="H26" t="n">
-        <v>3.53</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1350,29 +1350,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Toyota Corolla Cross  2022</t>
+          <t xml:space="preserve">VW Amarok 2022 </t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>45.83</v>
+        <v>35.19</v>
       </c>
       <c r="D27" t="n">
-        <v>34.52</v>
+        <v>38.89</v>
       </c>
       <c r="E27" t="n">
-        <v>11.31</v>
+        <v>10.49</v>
       </c>
       <c r="F27" t="n">
-        <v>2.38</v>
+        <v>3.09</v>
       </c>
       <c r="G27" t="n">
-        <v>3.57</v>
+        <v>12.35</v>
       </c>
       <c r="H27" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1384,26 +1384,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Range Rover Sport  2022</t>
+          <t xml:space="preserve">Mercedes Benz GLC 2022 </t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>31.67</v>
+        <v>22.78</v>
       </c>
       <c r="D28" t="n">
-        <v>23.89</v>
+        <v>51.11</v>
       </c>
       <c r="E28" t="n">
-        <v>22.78</v>
+        <v>15.56</v>
       </c>
       <c r="F28" t="n">
-        <v>9.44</v>
+        <v>8.33</v>
       </c>
       <c r="G28" t="n">
-        <v>12.22</v>
+        <v>2.22</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1418,29 +1418,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Isuzu D-MAX Crew Cab  2022</t>
+          <t xml:space="preserve">Maxus MIFA 9 2022 </t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>14.2</v>
+        <v>14.37</v>
       </c>
       <c r="D29" t="n">
-        <v>51.85</v>
+        <v>36.21</v>
       </c>
       <c r="E29" t="n">
-        <v>22.84</v>
+        <v>17.82</v>
       </c>
       <c r="F29" t="n">
-        <v>8.640000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>2.47</v>
+        <v>17.82</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1452,29 +1452,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Range Rover  2022</t>
+          <t xml:space="preserve">Ford Puma 2022 </t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="C30" t="n">
-        <v>26.67</v>
+        <v>17.9</v>
       </c>
       <c r="D30" t="n">
-        <v>38.33</v>
+        <v>24.69</v>
       </c>
       <c r="E30" t="n">
-        <v>17.78</v>
+        <v>21.6</v>
       </c>
       <c r="F30" t="n">
-        <v>6.11</v>
+        <v>7.41</v>
       </c>
       <c r="G30" t="n">
-        <v>11.11</v>
+        <v>19.14</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1486,29 +1486,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renault Austral  2022</t>
+          <t xml:space="preserve">BMW 2 Series Coupe 2022 </t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>19.05</v>
+        <v>61.18</v>
       </c>
       <c r="D31" t="n">
-        <v>25.6</v>
+        <v>19.41</v>
       </c>
       <c r="E31" t="n">
-        <v>30.95</v>
+        <v>11.18</v>
       </c>
       <c r="F31" t="n">
-        <v>10.12</v>
+        <v>1.76</v>
       </c>
       <c r="G31" t="n">
-        <v>10.71</v>
+        <v>6.47</v>
       </c>
       <c r="H31" t="n">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1520,29 +1520,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tesla Model S  2022</t>
+          <t xml:space="preserve">Renault Megane E Tech 2022 </t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>5.36</v>
       </c>
       <c r="C32" t="n">
-        <v>35.57</v>
+        <v>20.83</v>
       </c>
       <c r="D32" t="n">
-        <v>41.24</v>
+        <v>24.4</v>
       </c>
       <c r="E32" t="n">
-        <v>5.67</v>
+        <v>28.57</v>
       </c>
       <c r="F32" t="n">
-        <v>4.64</v>
+        <v>4.17</v>
       </c>
       <c r="G32" t="n">
-        <v>10.82</v>
+        <v>10.71</v>
       </c>
       <c r="H32" t="n">
-        <v>2.06</v>
+        <v>5.95</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1554,29 +1554,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Honda Civic  2022</t>
+          <t xml:space="preserve">VW Polo 2022 </t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>10.13</v>
       </c>
       <c r="C33" t="n">
-        <v>41.76</v>
+        <v>21.52</v>
       </c>
       <c r="D33" t="n">
-        <v>35.88</v>
+        <v>33.54</v>
       </c>
       <c r="E33" t="n">
-        <v>7.06</v>
+        <v>15.19</v>
       </c>
       <c r="F33" t="n">
-        <v>4.71</v>
+        <v>8.23</v>
       </c>
       <c r="G33" t="n">
-        <v>7.06</v>
+        <v>5.06</v>
       </c>
       <c r="H33" t="n">
-        <v>3.53</v>
+        <v>6.33</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1588,26 +1588,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nissan X Trail  2021</t>
+          <t xml:space="preserve">Lexus NX 2022 </t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>32.94</v>
+        <v>35.88</v>
       </c>
       <c r="D34" t="n">
-        <v>34.12</v>
+        <v>30.59</v>
       </c>
       <c r="E34" t="n">
-        <v>12.35</v>
+        <v>18.24</v>
       </c>
       <c r="F34" t="n">
-        <v>7.06</v>
+        <v>9.41</v>
       </c>
       <c r="G34" t="n">
-        <v>11.18</v>
+        <v>3.53</v>
       </c>
       <c r="H34" t="n">
         <v>2.35</v>
@@ -1622,29 +1622,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SEAT Ibiza  2022</t>
+          <t xml:space="preserve">VW Taigo 2022 </t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11.11</v>
+        <v>4.61</v>
       </c>
       <c r="C35" t="n">
-        <v>16.05</v>
+        <v>23.03</v>
       </c>
       <c r="D35" t="n">
-        <v>26.54</v>
+        <v>32.89</v>
       </c>
       <c r="E35" t="n">
-        <v>24.07</v>
+        <v>19.08</v>
       </c>
       <c r="F35" t="n">
-        <v>5.56</v>
+        <v>11.18</v>
       </c>
       <c r="G35" t="n">
-        <v>10.49</v>
+        <v>3.95</v>
       </c>
       <c r="H35" t="n">
-        <v>6.17</v>
+        <v>5.26</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1656,29 +1656,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mobilize Limo  2022</t>
+          <t xml:space="preserve">VW Polo 2022 </t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.29</v>
+        <v>10.13</v>
       </c>
       <c r="C36" t="n">
-        <v>14.12</v>
+        <v>21.52</v>
       </c>
       <c r="D36" t="n">
-        <v>33.53</v>
+        <v>33.54</v>
       </c>
       <c r="E36" t="n">
-        <v>15.29</v>
+        <v>15.19</v>
       </c>
       <c r="F36" t="n">
-        <v>8.82</v>
+        <v>8.23</v>
       </c>
       <c r="G36" t="n">
-        <v>18.24</v>
+        <v>5.06</v>
       </c>
       <c r="H36" t="n">
-        <v>4.71</v>
+        <v>6.33</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1690,29 +1690,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mercedes-EQ EQE  2022</t>
+          <t xml:space="preserve">Nissan Ariya 2022 </t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>44.02</v>
+        <v>29.41</v>
       </c>
       <c r="D37" t="n">
-        <v>30.43</v>
+        <v>36.47</v>
       </c>
       <c r="E37" t="n">
-        <v>9.24</v>
+        <v>11.76</v>
       </c>
       <c r="F37" t="n">
-        <v>2.72</v>
+        <v>8.82</v>
       </c>
       <c r="G37" t="n">
-        <v>10.33</v>
+        <v>10</v>
       </c>
       <c r="H37" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1724,29 +1724,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SEAT Arona  2022</t>
+          <t xml:space="preserve">smart 1 2022 </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.56</v>
+        <v>1.79</v>
       </c>
       <c r="C38" t="n">
-        <v>23.46</v>
+        <v>22.62</v>
       </c>
       <c r="D38" t="n">
-        <v>28.4</v>
+        <v>34.52</v>
       </c>
       <c r="E38" t="n">
-        <v>20.37</v>
+        <v>19.05</v>
       </c>
       <c r="F38" t="n">
-        <v>8.02</v>
+        <v>8.93</v>
       </c>
       <c r="G38" t="n">
-        <v>9.26</v>
+        <v>10.71</v>
       </c>
       <c r="H38" t="n">
-        <v>4.94</v>
+        <v>2.38</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1758,29 +1758,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>VW Golf  2022</t>
+          <t xml:space="preserve">Hyundai IONIQ 6 2022 </t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>4.49</v>
       </c>
       <c r="C39" t="n">
-        <v>26.88</v>
+        <v>3.37</v>
       </c>
       <c r="D39" t="n">
-        <v>41.88</v>
+        <v>14.04</v>
       </c>
       <c r="E39" t="n">
-        <v>12.5</v>
+        <v>36.52</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>20.22</v>
       </c>
       <c r="G39" t="n">
-        <v>3.75</v>
+        <v>17.98</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>3.37</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1792,29 +1792,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Kia Sportage  2022</t>
+          <t xml:space="preserve">Toyota Corolla Cross 2022 </t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>45.83</v>
       </c>
       <c r="D40" t="n">
-        <v>20.59</v>
+        <v>34.52</v>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>11.31</v>
       </c>
       <c r="F40" t="n">
-        <v>7.65</v>
+        <v>2.38</v>
       </c>
       <c r="G40" t="n">
-        <v>9.41</v>
+        <v>3.57</v>
       </c>
       <c r="H40" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1826,29 +1826,29 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mercedes-Benz T-Class  2022</t>
+          <t xml:space="preserve">Range Rover Sport 2022 </t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.77</v>
+        <v>31.67</v>
       </c>
       <c r="D41" t="n">
-        <v>34.48</v>
+        <v>23.89</v>
       </c>
       <c r="E41" t="n">
-        <v>24.71</v>
+        <v>22.78</v>
       </c>
       <c r="F41" t="n">
-        <v>8.050000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="G41" t="n">
-        <v>6.9</v>
+        <v>12.22</v>
       </c>
       <c r="H41" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1860,29 +1860,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Toyota Aygo X  2022</t>
+          <t xml:space="preserve">Isuzu D MAX Crew Cab 2022 </t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11.84</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>29.61</v>
+        <v>14.2</v>
       </c>
       <c r="D42" t="n">
-        <v>34.21</v>
+        <v>51.85</v>
       </c>
       <c r="E42" t="n">
-        <v>10.53</v>
+        <v>22.84</v>
       </c>
       <c r="F42" t="n">
-        <v>0.66</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>7.89</v>
+        <v>2.47</v>
       </c>
       <c r="H42" t="n">
-        <v>5.26</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1894,29 +1894,29 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Alfa Romeo Tonale  2022</t>
+          <t xml:space="preserve">NIO ET7 2022 </t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>22.02</v>
+        <v>22.53</v>
       </c>
       <c r="D43" t="n">
-        <v>29.76</v>
+        <v>46.7</v>
       </c>
       <c r="E43" t="n">
-        <v>16.67</v>
+        <v>12.64</v>
       </c>
       <c r="F43" t="n">
-        <v>11.9</v>
+        <v>7.69</v>
       </c>
       <c r="G43" t="n">
-        <v>17.26</v>
+        <v>10.44</v>
       </c>
       <c r="H43" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1928,34 +1928,816 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cupra Born  2022</t>
+          <t xml:space="preserve">Range Rover 2022 </t>
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26.67</v>
+      </c>
+      <c r="D44" t="n">
+        <v>38.33</v>
+      </c>
+      <c r="E44" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="G44" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Renault Austral 2022 </t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="D45" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DS 9 2022 </t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>51.76</v>
+      </c>
+      <c r="D46" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G46" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tesla Model S 2022 </t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>35.57</v>
+      </c>
+      <c r="D47" t="n">
+        <v>41.24</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Honda Civic 2022 </t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="D48" t="n">
+        <v>35.88</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nissan X Trail 2021 </t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="D49" t="n">
+        <v>34.12</v>
+      </c>
+      <c r="E49" t="n">
         <v>12.35</v>
       </c>
-      <c r="C44" t="n">
+      <c r="F49" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="G49" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WEY Coffee 02 2022 </t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="D50" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="E50" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toyota bZ4X 2022 </t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>35.06</v>
+      </c>
+      <c r="D51" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="E51" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT Ibiza 2022 </t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="C52" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="D52" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="E52" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BMW X1 2022 </t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>47.53</v>
+      </c>
+      <c r="D53" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mobilize Limo 2022 </t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="D54" t="n">
+        <v>33.53</v>
+      </c>
+      <c r="E54" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="F54" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="G54" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mercedes EQ EQE 2022 </t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>44.02</v>
+      </c>
+      <c r="D55" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BYD ATTO 3 2022 </t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="D56" t="n">
+        <v>36.63</v>
+      </c>
+      <c r="E56" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="F56" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="G56" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Citroen C5 X 2022 </t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>60</v>
+      </c>
+      <c r="D57" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G57" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEAT Arona 2022 </t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="D58" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E58" t="n">
+        <v>20.37</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAZDA CX 60 2022 </t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>61.59</v>
+      </c>
+      <c r="D59" t="n">
+        <v>24.39</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BMW 2 Series Active Tourer 2022 </t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="C60" t="n">
+        <v>39.29</v>
+      </c>
+      <c r="D60" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="E60" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="G60" t="n">
+        <v>17.86</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VW Golf 2022 </t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>26.88</v>
+      </c>
+      <c r="D61" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kia Sportage 2022 </t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>40</v>
+      </c>
+      <c r="D62" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="E62" t="n">
+        <v>20</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BMW i4 2022 </t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>64.84</v>
+      </c>
+      <c r="D63" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mercedes Benz T Class 2022 </t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="D64" t="n">
+        <v>34.48</v>
+      </c>
+      <c r="E64" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toyota Aygo X 2022 </t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="C65" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="D65" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfa Romeo Tonale 2022 </t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D66" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="E66" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G66" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cupra Born 2022 </t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C67" t="n">
         <v>19.75</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D67" t="n">
         <v>27.16</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E67" t="n">
         <v>18.52</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F67" t="n">
         <v>6.17</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G67" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H67" t="n">
         <v>6.17</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1656,29 +1656,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">VW Polo 2022 </t>
+          <t xml:space="preserve">Nissan Ariya 2022 </t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10.13</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>21.52</v>
+        <v>29.41</v>
       </c>
       <c r="D36" t="n">
-        <v>33.54</v>
+        <v>36.47</v>
       </c>
       <c r="E36" t="n">
-        <v>15.19</v>
+        <v>11.76</v>
       </c>
       <c r="F36" t="n">
-        <v>8.23</v>
+        <v>8.82</v>
       </c>
       <c r="G36" t="n">
-        <v>5.06</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
-        <v>6.33</v>
+        <v>3.53</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1690,29 +1690,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nissan Ariya 2022 </t>
+          <t xml:space="preserve">smart 1 2022 </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="C37" t="n">
-        <v>29.41</v>
+        <v>22.62</v>
       </c>
       <c r="D37" t="n">
-        <v>36.47</v>
+        <v>34.52</v>
       </c>
       <c r="E37" t="n">
-        <v>11.76</v>
+        <v>19.05</v>
       </c>
       <c r="F37" t="n">
-        <v>8.82</v>
+        <v>8.93</v>
       </c>
       <c r="G37" t="n">
-        <v>10</v>
+        <v>10.71</v>
       </c>
       <c r="H37" t="n">
-        <v>3.53</v>
+        <v>2.38</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1724,29 +1724,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">smart 1 2022 </t>
+          <t xml:space="preserve">Hyundai IONIQ 6 2022 </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.79</v>
+        <v>4.49</v>
       </c>
       <c r="C38" t="n">
-        <v>22.62</v>
+        <v>3.37</v>
       </c>
       <c r="D38" t="n">
-        <v>34.52</v>
+        <v>14.04</v>
       </c>
       <c r="E38" t="n">
-        <v>19.05</v>
+        <v>36.52</v>
       </c>
       <c r="F38" t="n">
-        <v>8.93</v>
+        <v>20.22</v>
       </c>
       <c r="G38" t="n">
-        <v>10.71</v>
+        <v>17.98</v>
       </c>
       <c r="H38" t="n">
-        <v>2.38</v>
+        <v>3.37</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1758,29 +1758,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyundai IONIQ 6 2022 </t>
+          <t xml:space="preserve">Toyota Corolla Cross 2022 </t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.49</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>3.37</v>
+        <v>45.83</v>
       </c>
       <c r="D39" t="n">
-        <v>14.04</v>
+        <v>34.52</v>
       </c>
       <c r="E39" t="n">
-        <v>36.52</v>
+        <v>11.31</v>
       </c>
       <c r="F39" t="n">
-        <v>20.22</v>
+        <v>2.38</v>
       </c>
       <c r="G39" t="n">
-        <v>17.98</v>
+        <v>3.57</v>
       </c>
       <c r="H39" t="n">
-        <v>3.37</v>
+        <v>2.38</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1792,29 +1792,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toyota Corolla Cross 2022 </t>
+          <t xml:space="preserve">Range Rover Sport 2022 </t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>45.83</v>
+        <v>31.67</v>
       </c>
       <c r="D40" t="n">
-        <v>34.52</v>
+        <v>23.89</v>
       </c>
       <c r="E40" t="n">
-        <v>11.31</v>
+        <v>22.78</v>
       </c>
       <c r="F40" t="n">
-        <v>2.38</v>
+        <v>9.44</v>
       </c>
       <c r="G40" t="n">
-        <v>3.57</v>
+        <v>12.22</v>
       </c>
       <c r="H40" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1826,26 +1826,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Range Rover Sport 2022 </t>
+          <t xml:space="preserve">Isuzu D MAX Crew Cab 2022 </t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>31.67</v>
+        <v>14.2</v>
       </c>
       <c r="D41" t="n">
-        <v>23.89</v>
+        <v>51.85</v>
       </c>
       <c r="E41" t="n">
-        <v>22.78</v>
+        <v>22.84</v>
       </c>
       <c r="F41" t="n">
-        <v>9.44</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>12.22</v>
+        <v>2.47</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1860,26 +1860,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isuzu D MAX Crew Cab 2022 </t>
+          <t xml:space="preserve">NIO ET7 2022 </t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>14.2</v>
+        <v>22.53</v>
       </c>
       <c r="D42" t="n">
-        <v>51.85</v>
+        <v>46.7</v>
       </c>
       <c r="E42" t="n">
-        <v>22.84</v>
+        <v>12.64</v>
       </c>
       <c r="F42" t="n">
-        <v>8.640000000000001</v>
+        <v>7.69</v>
       </c>
       <c r="G42" t="n">
-        <v>2.47</v>
+        <v>10.44</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1894,26 +1894,26 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">NIO ET7 2022 </t>
+          <t xml:space="preserve">Range Rover 2022 </t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>22.53</v>
+        <v>26.67</v>
       </c>
       <c r="D43" t="n">
-        <v>46.7</v>
+        <v>38.33</v>
       </c>
       <c r="E43" t="n">
-        <v>12.64</v>
+        <v>17.78</v>
       </c>
       <c r="F43" t="n">
-        <v>7.69</v>
+        <v>6.11</v>
       </c>
       <c r="G43" t="n">
-        <v>10.44</v>
+        <v>11.11</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1928,29 +1928,29 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Range Rover 2022 </t>
+          <t xml:space="preserve">Renault Austral 2022 </t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>26.67</v>
+        <v>19.05</v>
       </c>
       <c r="D44" t="n">
-        <v>38.33</v>
+        <v>25.6</v>
       </c>
       <c r="E44" t="n">
-        <v>17.78</v>
+        <v>30.95</v>
       </c>
       <c r="F44" t="n">
-        <v>6.11</v>
+        <v>10.12</v>
       </c>
       <c r="G44" t="n">
-        <v>11.11</v>
+        <v>10.71</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1962,29 +1962,29 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renault Austral 2022 </t>
+          <t xml:space="preserve">DS 9 2022 </t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>19.05</v>
+        <v>51.76</v>
       </c>
       <c r="D45" t="n">
-        <v>25.6</v>
+        <v>18.24</v>
       </c>
       <c r="E45" t="n">
-        <v>30.95</v>
+        <v>7.06</v>
       </c>
       <c r="F45" t="n">
-        <v>10.12</v>
+        <v>2.94</v>
       </c>
       <c r="G45" t="n">
-        <v>10.71</v>
+        <v>17.65</v>
       </c>
       <c r="H45" t="n">
-        <v>3.57</v>
+        <v>2.35</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1996,29 +1996,29 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">DS 9 2022 </t>
+          <t xml:space="preserve">Tesla Model S 2022 </t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>51.76</v>
+        <v>35.57</v>
       </c>
       <c r="D46" t="n">
-        <v>18.24</v>
+        <v>41.24</v>
       </c>
       <c r="E46" t="n">
-        <v>7.06</v>
+        <v>5.67</v>
       </c>
       <c r="F46" t="n">
-        <v>2.94</v>
+        <v>4.64</v>
       </c>
       <c r="G46" t="n">
-        <v>17.65</v>
+        <v>10.82</v>
       </c>
       <c r="H46" t="n">
-        <v>2.35</v>
+        <v>2.06</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2030,29 +2030,29 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tesla Model S 2022 </t>
+          <t xml:space="preserve">Honda Civic 2022 </t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>35.57</v>
+        <v>41.76</v>
       </c>
       <c r="D47" t="n">
-        <v>41.24</v>
+        <v>35.88</v>
       </c>
       <c r="E47" t="n">
-        <v>5.67</v>
+        <v>7.06</v>
       </c>
       <c r="F47" t="n">
-        <v>4.64</v>
+        <v>4.71</v>
       </c>
       <c r="G47" t="n">
-        <v>10.82</v>
+        <v>7.06</v>
       </c>
       <c r="H47" t="n">
-        <v>2.06</v>
+        <v>3.53</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2064,29 +2064,29 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honda Civic 2022 </t>
+          <t xml:space="preserve">Nissan X Trail 2021 </t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>41.76</v>
+        <v>32.94</v>
       </c>
       <c r="D48" t="n">
-        <v>35.88</v>
+        <v>34.12</v>
       </c>
       <c r="E48" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="F48" t="n">
         <v>7.06</v>
       </c>
-      <c r="F48" t="n">
-        <v>4.71</v>
-      </c>
       <c r="G48" t="n">
-        <v>7.06</v>
+        <v>11.18</v>
       </c>
       <c r="H48" t="n">
-        <v>3.53</v>
+        <v>2.35</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2098,29 +2098,29 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nissan X Trail 2021 </t>
+          <t xml:space="preserve">WEY Coffee 02 2022 </t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>32.94</v>
+        <v>27.22</v>
       </c>
       <c r="D49" t="n">
-        <v>34.12</v>
+        <v>32.22</v>
       </c>
       <c r="E49" t="n">
-        <v>12.35</v>
+        <v>23.33</v>
       </c>
       <c r="F49" t="n">
-        <v>7.06</v>
+        <v>7.22</v>
       </c>
       <c r="G49" t="n">
-        <v>11.18</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2132,29 +2132,29 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEY Coffee 02 2022 </t>
+          <t xml:space="preserve">Toyota bZ4X 2022 </t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>27.22</v>
+        <v>35.06</v>
       </c>
       <c r="D50" t="n">
-        <v>32.22</v>
+        <v>28.16</v>
       </c>
       <c r="E50" t="n">
-        <v>23.33</v>
+        <v>22.99</v>
       </c>
       <c r="F50" t="n">
-        <v>7.22</v>
+        <v>4.6</v>
       </c>
       <c r="G50" t="n">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2166,29 +2166,29 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toyota bZ4X 2022 </t>
+          <t xml:space="preserve">SEAT Ibiza 2022 </t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="C51" t="n">
-        <v>35.06</v>
+        <v>16.05</v>
       </c>
       <c r="D51" t="n">
-        <v>28.16</v>
+        <v>26.54</v>
       </c>
       <c r="E51" t="n">
-        <v>22.99</v>
+        <v>24.07</v>
       </c>
       <c r="F51" t="n">
-        <v>4.6</v>
+        <v>5.56</v>
       </c>
       <c r="G51" t="n">
-        <v>5.75</v>
+        <v>10.49</v>
       </c>
       <c r="H51" t="n">
-        <v>3.45</v>
+        <v>6.17</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2200,29 +2200,29 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEAT Ibiza 2022 </t>
+          <t xml:space="preserve">BMW X1 2022 </t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>16.05</v>
+        <v>47.53</v>
       </c>
       <c r="D52" t="n">
-        <v>26.54</v>
+        <v>32.72</v>
       </c>
       <c r="E52" t="n">
-        <v>24.07</v>
+        <v>4.94</v>
       </c>
       <c r="F52" t="n">
-        <v>5.56</v>
+        <v>4.32</v>
       </c>
       <c r="G52" t="n">
-        <v>10.49</v>
+        <v>9.26</v>
       </c>
       <c r="H52" t="n">
-        <v>6.17</v>
+        <v>1.23</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2234,29 +2234,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">BMW X1 2022 </t>
+          <t xml:space="preserve">Mobilize Limo 2022 </t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>5.29</v>
       </c>
       <c r="C53" t="n">
-        <v>47.53</v>
+        <v>14.12</v>
       </c>
       <c r="D53" t="n">
-        <v>32.72</v>
+        <v>33.53</v>
       </c>
       <c r="E53" t="n">
-        <v>4.94</v>
+        <v>15.29</v>
       </c>
       <c r="F53" t="n">
-        <v>4.32</v>
+        <v>8.82</v>
       </c>
       <c r="G53" t="n">
-        <v>9.26</v>
+        <v>18.24</v>
       </c>
       <c r="H53" t="n">
-        <v>1.23</v>
+        <v>4.71</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2268,29 +2268,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mobilize Limo 2022 </t>
+          <t xml:space="preserve">Mercedes EQ EQE 2022 </t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.29</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>14.12</v>
+        <v>44.02</v>
       </c>
       <c r="D54" t="n">
-        <v>33.53</v>
+        <v>30.43</v>
       </c>
       <c r="E54" t="n">
-        <v>15.29</v>
+        <v>9.24</v>
       </c>
       <c r="F54" t="n">
-        <v>8.82</v>
+        <v>2.72</v>
       </c>
       <c r="G54" t="n">
-        <v>18.24</v>
+        <v>10.33</v>
       </c>
       <c r="H54" t="n">
-        <v>4.71</v>
+        <v>3.26</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2302,29 +2302,29 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mercedes EQ EQE 2022 </t>
+          <t xml:space="preserve">BYD ATTO 3 2022 </t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>44.02</v>
+        <v>21.51</v>
       </c>
       <c r="D55" t="n">
-        <v>30.43</v>
+        <v>36.63</v>
       </c>
       <c r="E55" t="n">
-        <v>9.24</v>
+        <v>18.02</v>
       </c>
       <c r="F55" t="n">
-        <v>2.72</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>10.33</v>
+        <v>11.63</v>
       </c>
       <c r="H55" t="n">
-        <v>3.26</v>
+        <v>3.49</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2336,29 +2336,29 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">BYD ATTO 3 2022 </t>
+          <t xml:space="preserve">Citroen C5 X 2022 </t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>21.51</v>
+        <v>60</v>
       </c>
       <c r="D56" t="n">
-        <v>36.63</v>
+        <v>19.41</v>
       </c>
       <c r="E56" t="n">
-        <v>18.02</v>
+        <v>1.18</v>
       </c>
       <c r="F56" t="n">
-        <v>8.720000000000001</v>
+        <v>2.35</v>
       </c>
       <c r="G56" t="n">
-        <v>11.63</v>
+        <v>14.71</v>
       </c>
       <c r="H56" t="n">
-        <v>3.49</v>
+        <v>2.35</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2370,29 +2370,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citroen C5 X 2022 </t>
+          <t xml:space="preserve">SEAT Arona 2022 </t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="C57" t="n">
-        <v>60</v>
+        <v>23.46</v>
       </c>
       <c r="D57" t="n">
-        <v>19.41</v>
+        <v>28.4</v>
       </c>
       <c r="E57" t="n">
-        <v>1.18</v>
+        <v>20.37</v>
       </c>
       <c r="F57" t="n">
-        <v>2.35</v>
+        <v>8.02</v>
       </c>
       <c r="G57" t="n">
-        <v>14.71</v>
+        <v>9.26</v>
       </c>
       <c r="H57" t="n">
-        <v>2.35</v>
+        <v>4.94</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2404,29 +2404,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEAT Arona 2022 </t>
+          <t xml:space="preserve">MAZDA CX 60 2022 </t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.56</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>23.46</v>
+        <v>61.59</v>
       </c>
       <c r="D58" t="n">
-        <v>28.4</v>
+        <v>24.39</v>
       </c>
       <c r="E58" t="n">
-        <v>20.37</v>
+        <v>7.32</v>
       </c>
       <c r="F58" t="n">
-        <v>8.02</v>
+        <v>6.71</v>
       </c>
       <c r="G58" t="n">
-        <v>9.26</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>4.94</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2438,29 +2438,29 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">MAZDA CX 60 2022 </t>
+          <t xml:space="preserve">BMW 2 Series Active Tourer 2022 </t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>5.36</v>
       </c>
       <c r="C59" t="n">
-        <v>61.59</v>
+        <v>39.29</v>
       </c>
       <c r="D59" t="n">
-        <v>24.39</v>
+        <v>21.43</v>
       </c>
       <c r="E59" t="n">
-        <v>7.32</v>
+        <v>7.74</v>
       </c>
       <c r="F59" t="n">
-        <v>6.71</v>
+        <v>3.57</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>17.86</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2472,29 +2472,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">BMW 2 Series Active Tourer 2022 </t>
+          <t xml:space="preserve">VW Golf 2022 </t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5.36</v>
+        <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>39.29</v>
+        <v>26.88</v>
       </c>
       <c r="D60" t="n">
-        <v>21.43</v>
+        <v>41.88</v>
       </c>
       <c r="E60" t="n">
-        <v>7.74</v>
+        <v>12.5</v>
       </c>
       <c r="F60" t="n">
-        <v>3.57</v>
+        <v>5</v>
       </c>
       <c r="G60" t="n">
-        <v>17.86</v>
+        <v>3.75</v>
       </c>
       <c r="H60" t="n">
-        <v>4.76</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2506,29 +2506,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">VW Golf 2022 </t>
+          <t xml:space="preserve">Kia Sportage 2022 </t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>26.88</v>
+        <v>40</v>
       </c>
       <c r="D61" t="n">
-        <v>41.88</v>
+        <v>20.59</v>
       </c>
       <c r="E61" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>7.65</v>
       </c>
       <c r="G61" t="n">
-        <v>3.75</v>
+        <v>9.41</v>
       </c>
       <c r="H61" t="n">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2540,29 +2540,29 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kia Sportage 2022 </t>
+          <t xml:space="preserve">BMW i4 2022 </t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>64.84</v>
       </c>
       <c r="D62" t="n">
-        <v>20.59</v>
+        <v>23.63</v>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>7.69</v>
       </c>
       <c r="F62" t="n">
-        <v>7.65</v>
+        <v>1.65</v>
       </c>
       <c r="G62" t="n">
-        <v>9.41</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2574,29 +2574,29 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">BMW i4 2022 </t>
+          <t xml:space="preserve">Mercedes Benz T Class 2022 </t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="C63" t="n">
-        <v>64.84</v>
+        <v>9.77</v>
       </c>
       <c r="D63" t="n">
-        <v>23.63</v>
+        <v>34.48</v>
       </c>
       <c r="E63" t="n">
-        <v>7.69</v>
+        <v>24.71</v>
       </c>
       <c r="F63" t="n">
-        <v>1.65</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>6.9</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2608,29 +2608,29 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mercedes Benz T Class 2022 </t>
+          <t xml:space="preserve">Toyota Aygo X 2022 </t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10.34</v>
+        <v>11.84</v>
       </c>
       <c r="C64" t="n">
-        <v>9.77</v>
+        <v>29.61</v>
       </c>
       <c r="D64" t="n">
-        <v>34.48</v>
+        <v>34.21</v>
       </c>
       <c r="E64" t="n">
-        <v>24.71</v>
+        <v>10.53</v>
       </c>
       <c r="F64" t="n">
-        <v>8.050000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="G64" t="n">
-        <v>6.9</v>
+        <v>7.89</v>
       </c>
       <c r="H64" t="n">
-        <v>5.75</v>
+        <v>5.26</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2642,29 +2642,29 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toyota Aygo X 2022 </t>
+          <t xml:space="preserve">Alfa Romeo Tonale 2022 </t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>11.84</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>29.61</v>
+        <v>22.02</v>
       </c>
       <c r="D65" t="n">
-        <v>34.21</v>
+        <v>29.76</v>
       </c>
       <c r="E65" t="n">
-        <v>10.53</v>
+        <v>16.67</v>
       </c>
       <c r="F65" t="n">
-        <v>0.66</v>
+        <v>11.9</v>
       </c>
       <c r="G65" t="n">
-        <v>7.89</v>
+        <v>17.26</v>
       </c>
       <c r="H65" t="n">
-        <v>5.26</v>
+        <v>2.38</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2676,68 +2676,34 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alfa Romeo Tonale 2022 </t>
+          <t xml:space="preserve">Cupra Born 2022 </t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>12.35</v>
       </c>
       <c r="C66" t="n">
-        <v>22.02</v>
+        <v>19.75</v>
       </c>
       <c r="D66" t="n">
-        <v>29.76</v>
+        <v>27.16</v>
       </c>
       <c r="E66" t="n">
-        <v>16.67</v>
+        <v>18.52</v>
       </c>
       <c r="F66" t="n">
-        <v>11.9</v>
+        <v>6.17</v>
       </c>
       <c r="G66" t="n">
-        <v>17.26</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>2.38</v>
+        <v>6.17</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cupra Born 2022 </t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="C67" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="D67" t="n">
-        <v>27.16</v>
-      </c>
-      <c r="E67" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="F67" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="G67" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honda HR V 2022 </t>
+          <t xml:space="preserve">Honda HR-V 2022 </t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -670,7 +670,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mercedes Benz C Class 2022 </t>
+          <t xml:space="preserve">Mercedes-Benz C-Class 2022 </t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1384,7 +1384,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mercedes Benz GLC 2022 </t>
+          <t xml:space="preserve">Mercedes-Benz GLC 2022 </t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1520,7 +1520,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renault Megane E Tech 2022 </t>
+          <t xml:space="preserve">Renault Megane E-Tech 2022 </t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1656,29 +1656,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nissan Ariya 2022 </t>
+          <t xml:space="preserve">VW Polo 2022 </t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>10.13</v>
       </c>
       <c r="C36" t="n">
-        <v>29.41</v>
+        <v>21.52</v>
       </c>
       <c r="D36" t="n">
-        <v>36.47</v>
+        <v>33.54</v>
       </c>
       <c r="E36" t="n">
-        <v>11.76</v>
+        <v>15.19</v>
       </c>
       <c r="F36" t="n">
-        <v>8.82</v>
+        <v>8.23</v>
       </c>
       <c r="G36" t="n">
-        <v>10</v>
+        <v>5.06</v>
       </c>
       <c r="H36" t="n">
-        <v>3.53</v>
+        <v>6.33</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1690,29 +1690,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">smart 1 2022 </t>
+          <t xml:space="preserve">Nissan Ariya 2022 </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>22.62</v>
+        <v>29.41</v>
       </c>
       <c r="D37" t="n">
-        <v>34.52</v>
+        <v>36.47</v>
       </c>
       <c r="E37" t="n">
-        <v>19.05</v>
+        <v>11.76</v>
       </c>
       <c r="F37" t="n">
-        <v>8.93</v>
+        <v>8.82</v>
       </c>
       <c r="G37" t="n">
-        <v>10.71</v>
+        <v>10</v>
       </c>
       <c r="H37" t="n">
-        <v>2.38</v>
+        <v>3.53</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1724,29 +1724,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyundai IONIQ 6 2022 </t>
+          <t xml:space="preserve">smart 1 2022 </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.49</v>
+        <v>1.79</v>
       </c>
       <c r="C38" t="n">
-        <v>3.37</v>
+        <v>22.62</v>
       </c>
       <c r="D38" t="n">
-        <v>14.04</v>
+        <v>34.52</v>
       </c>
       <c r="E38" t="n">
-        <v>36.52</v>
+        <v>19.05</v>
       </c>
       <c r="F38" t="n">
-        <v>20.22</v>
+        <v>8.93</v>
       </c>
       <c r="G38" t="n">
-        <v>17.98</v>
+        <v>10.71</v>
       </c>
       <c r="H38" t="n">
-        <v>3.37</v>
+        <v>2.38</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1758,29 +1758,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toyota Corolla Cross 2022 </t>
+          <t xml:space="preserve">Hyundai IONIQ 6 2022 </t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>4.49</v>
       </c>
       <c r="C39" t="n">
-        <v>45.83</v>
+        <v>3.37</v>
       </c>
       <c r="D39" t="n">
-        <v>34.52</v>
+        <v>14.04</v>
       </c>
       <c r="E39" t="n">
-        <v>11.31</v>
+        <v>36.52</v>
       </c>
       <c r="F39" t="n">
-        <v>2.38</v>
+        <v>20.22</v>
       </c>
       <c r="G39" t="n">
-        <v>3.57</v>
+        <v>17.98</v>
       </c>
       <c r="H39" t="n">
-        <v>2.38</v>
+        <v>3.37</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1792,29 +1792,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Range Rover Sport 2022 </t>
+          <t xml:space="preserve">Toyota Corolla Cross 2022 </t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>31.67</v>
+        <v>45.83</v>
       </c>
       <c r="D40" t="n">
-        <v>23.89</v>
+        <v>34.52</v>
       </c>
       <c r="E40" t="n">
-        <v>22.78</v>
+        <v>11.31</v>
       </c>
       <c r="F40" t="n">
-        <v>9.44</v>
+        <v>2.38</v>
       </c>
       <c r="G40" t="n">
-        <v>12.22</v>
+        <v>3.57</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1826,26 +1826,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isuzu D MAX Crew Cab 2022 </t>
+          <t xml:space="preserve">Range Rover Sport 2022 </t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>14.2</v>
+        <v>31.67</v>
       </c>
       <c r="D41" t="n">
-        <v>51.85</v>
+        <v>23.89</v>
       </c>
       <c r="E41" t="n">
-        <v>22.84</v>
+        <v>22.78</v>
       </c>
       <c r="F41" t="n">
-        <v>8.640000000000001</v>
+        <v>9.44</v>
       </c>
       <c r="G41" t="n">
-        <v>2.47</v>
+        <v>12.22</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1860,26 +1860,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">NIO ET7 2022 </t>
+          <t xml:space="preserve">Isuzu D-MAX Crew Cab 2022 </t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>22.53</v>
+        <v>14.2</v>
       </c>
       <c r="D42" t="n">
-        <v>46.7</v>
+        <v>51.85</v>
       </c>
       <c r="E42" t="n">
-        <v>12.64</v>
+        <v>22.84</v>
       </c>
       <c r="F42" t="n">
-        <v>7.69</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>10.44</v>
+        <v>2.47</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1894,26 +1894,26 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Range Rover 2022 </t>
+          <t xml:space="preserve">NIO ET7 2022 </t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>26.67</v>
+        <v>22.53</v>
       </c>
       <c r="D43" t="n">
-        <v>38.33</v>
+        <v>46.7</v>
       </c>
       <c r="E43" t="n">
-        <v>17.78</v>
+        <v>12.64</v>
       </c>
       <c r="F43" t="n">
-        <v>6.11</v>
+        <v>7.69</v>
       </c>
       <c r="G43" t="n">
-        <v>11.11</v>
+        <v>10.44</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1928,29 +1928,29 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renault Austral 2022 </t>
+          <t xml:space="preserve">Range Rover 2022 </t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>19.05</v>
+        <v>26.67</v>
       </c>
       <c r="D44" t="n">
-        <v>25.6</v>
+        <v>38.33</v>
       </c>
       <c r="E44" t="n">
-        <v>30.95</v>
+        <v>17.78</v>
       </c>
       <c r="F44" t="n">
-        <v>10.12</v>
+        <v>6.11</v>
       </c>
       <c r="G44" t="n">
-        <v>10.71</v>
+        <v>11.11</v>
       </c>
       <c r="H44" t="n">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1962,29 +1962,29 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">DS 9 2022 </t>
+          <t xml:space="preserve">Renault Austral 2022 </t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>51.76</v>
+        <v>19.05</v>
       </c>
       <c r="D45" t="n">
-        <v>18.24</v>
+        <v>25.6</v>
       </c>
       <c r="E45" t="n">
-        <v>7.06</v>
+        <v>30.95</v>
       </c>
       <c r="F45" t="n">
-        <v>2.94</v>
+        <v>10.12</v>
       </c>
       <c r="G45" t="n">
-        <v>17.65</v>
+        <v>10.71</v>
       </c>
       <c r="H45" t="n">
-        <v>2.35</v>
+        <v>3.57</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1996,29 +1996,29 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tesla Model S 2022 </t>
+          <t xml:space="preserve">DS 9 2022 </t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>35.57</v>
+        <v>51.76</v>
       </c>
       <c r="D46" t="n">
-        <v>41.24</v>
+        <v>18.24</v>
       </c>
       <c r="E46" t="n">
-        <v>5.67</v>
+        <v>7.06</v>
       </c>
       <c r="F46" t="n">
-        <v>4.64</v>
+        <v>2.94</v>
       </c>
       <c r="G46" t="n">
-        <v>10.82</v>
+        <v>17.65</v>
       </c>
       <c r="H46" t="n">
-        <v>2.06</v>
+        <v>2.35</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2030,29 +2030,29 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honda Civic 2022 </t>
+          <t xml:space="preserve">Tesla Model S 2022 </t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>41.76</v>
+        <v>35.57</v>
       </c>
       <c r="D47" t="n">
-        <v>35.88</v>
+        <v>41.24</v>
       </c>
       <c r="E47" t="n">
-        <v>7.06</v>
+        <v>5.67</v>
       </c>
       <c r="F47" t="n">
-        <v>4.71</v>
+        <v>4.64</v>
       </c>
       <c r="G47" t="n">
-        <v>7.06</v>
+        <v>10.82</v>
       </c>
       <c r="H47" t="n">
-        <v>3.53</v>
+        <v>2.06</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2064,29 +2064,29 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nissan X Trail 2021 </t>
+          <t xml:space="preserve">Honda Civic 2022 </t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>32.94</v>
+        <v>41.76</v>
       </c>
       <c r="D48" t="n">
-        <v>34.12</v>
+        <v>35.88</v>
       </c>
       <c r="E48" t="n">
-        <v>12.35</v>
+        <v>7.06</v>
       </c>
       <c r="F48" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="G48" t="n">
         <v>7.06</v>
       </c>
-      <c r="G48" t="n">
-        <v>11.18</v>
-      </c>
       <c r="H48" t="n">
-        <v>2.35</v>
+        <v>3.53</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2098,29 +2098,29 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEY Coffee 02 2022 </t>
+          <t xml:space="preserve">Nissan X Trail 2021 </t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>27.22</v>
+        <v>32.94</v>
       </c>
       <c r="D49" t="n">
-        <v>32.22</v>
+        <v>34.12</v>
       </c>
       <c r="E49" t="n">
-        <v>23.33</v>
+        <v>12.35</v>
       </c>
       <c r="F49" t="n">
-        <v>7.22</v>
+        <v>7.06</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>11.18</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2132,29 +2132,29 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toyota bZ4X 2022 </t>
+          <t xml:space="preserve">WEY Coffee 02 2022 </t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>35.06</v>
+        <v>27.22</v>
       </c>
       <c r="D50" t="n">
-        <v>28.16</v>
+        <v>32.22</v>
       </c>
       <c r="E50" t="n">
-        <v>22.99</v>
+        <v>23.33</v>
       </c>
       <c r="F50" t="n">
-        <v>4.6</v>
+        <v>7.22</v>
       </c>
       <c r="G50" t="n">
-        <v>5.75</v>
+        <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2166,29 +2166,29 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEAT Ibiza 2022 </t>
+          <t xml:space="preserve">Toyota bZ4X 2022 </t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>16.05</v>
+        <v>35.06</v>
       </c>
       <c r="D51" t="n">
-        <v>26.54</v>
+        <v>28.16</v>
       </c>
       <c r="E51" t="n">
-        <v>24.07</v>
+        <v>22.99</v>
       </c>
       <c r="F51" t="n">
-        <v>5.56</v>
+        <v>4.6</v>
       </c>
       <c r="G51" t="n">
-        <v>10.49</v>
+        <v>5.75</v>
       </c>
       <c r="H51" t="n">
-        <v>6.17</v>
+        <v>3.45</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2200,29 +2200,29 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">BMW X1 2022 </t>
+          <t xml:space="preserve">SEAT Ibiza 2022 </t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="C52" t="n">
-        <v>47.53</v>
+        <v>16.05</v>
       </c>
       <c r="D52" t="n">
-        <v>32.72</v>
+        <v>26.54</v>
       </c>
       <c r="E52" t="n">
-        <v>4.94</v>
+        <v>24.07</v>
       </c>
       <c r="F52" t="n">
-        <v>4.32</v>
+        <v>5.56</v>
       </c>
       <c r="G52" t="n">
-        <v>9.26</v>
+        <v>10.49</v>
       </c>
       <c r="H52" t="n">
-        <v>1.23</v>
+        <v>6.17</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2234,29 +2234,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mobilize Limo 2022 </t>
+          <t xml:space="preserve">BMW X1 2022 </t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5.29</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>14.12</v>
+        <v>47.53</v>
       </c>
       <c r="D53" t="n">
-        <v>33.53</v>
+        <v>32.72</v>
       </c>
       <c r="E53" t="n">
-        <v>15.29</v>
+        <v>4.94</v>
       </c>
       <c r="F53" t="n">
-        <v>8.82</v>
+        <v>4.32</v>
       </c>
       <c r="G53" t="n">
-        <v>18.24</v>
+        <v>9.26</v>
       </c>
       <c r="H53" t="n">
-        <v>4.71</v>
+        <v>1.23</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2268,29 +2268,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mercedes EQ EQE 2022 </t>
+          <t xml:space="preserve">Mobilize Limo 2022 </t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>5.29</v>
       </c>
       <c r="C54" t="n">
-        <v>44.02</v>
+        <v>14.12</v>
       </c>
       <c r="D54" t="n">
-        <v>30.43</v>
+        <v>33.53</v>
       </c>
       <c r="E54" t="n">
-        <v>9.24</v>
+        <v>15.29</v>
       </c>
       <c r="F54" t="n">
-        <v>2.72</v>
+        <v>8.82</v>
       </c>
       <c r="G54" t="n">
-        <v>10.33</v>
+        <v>18.24</v>
       </c>
       <c r="H54" t="n">
-        <v>3.26</v>
+        <v>4.71</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2302,29 +2302,29 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">BYD ATTO 3 2022 </t>
+          <t xml:space="preserve">Mercedes-EQ EQE 2022 </t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>21.51</v>
+        <v>44.02</v>
       </c>
       <c r="D55" t="n">
-        <v>36.63</v>
+        <v>30.43</v>
       </c>
       <c r="E55" t="n">
-        <v>18.02</v>
+        <v>9.24</v>
       </c>
       <c r="F55" t="n">
-        <v>8.720000000000001</v>
+        <v>2.72</v>
       </c>
       <c r="G55" t="n">
-        <v>11.63</v>
+        <v>10.33</v>
       </c>
       <c r="H55" t="n">
-        <v>3.49</v>
+        <v>3.26</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2336,29 +2336,29 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citroen C5 X 2022 </t>
+          <t xml:space="preserve">BYD ATTO 3 2022 </t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>60</v>
+        <v>21.51</v>
       </c>
       <c r="D56" t="n">
-        <v>19.41</v>
+        <v>36.63</v>
       </c>
       <c r="E56" t="n">
-        <v>1.18</v>
+        <v>18.02</v>
       </c>
       <c r="F56" t="n">
-        <v>2.35</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>14.71</v>
+        <v>11.63</v>
       </c>
       <c r="H56" t="n">
-        <v>2.35</v>
+        <v>3.49</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2370,29 +2370,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEAT Arona 2022 </t>
+          <t xml:space="preserve">Citroen C5 X 2022 </t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.56</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>23.46</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>28.4</v>
+        <v>19.41</v>
       </c>
       <c r="E57" t="n">
-        <v>20.37</v>
+        <v>1.18</v>
       </c>
       <c r="F57" t="n">
-        <v>8.02</v>
+        <v>2.35</v>
       </c>
       <c r="G57" t="n">
-        <v>9.26</v>
+        <v>14.71</v>
       </c>
       <c r="H57" t="n">
-        <v>4.94</v>
+        <v>2.35</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2404,29 +2404,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">MAZDA CX 60 2022 </t>
+          <t xml:space="preserve">SEAT Arona 2022 </t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="C58" t="n">
-        <v>61.59</v>
+        <v>23.46</v>
       </c>
       <c r="D58" t="n">
-        <v>24.39</v>
+        <v>28.4</v>
       </c>
       <c r="E58" t="n">
-        <v>7.32</v>
+        <v>20.37</v>
       </c>
       <c r="F58" t="n">
-        <v>6.71</v>
+        <v>8.02</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>9.26</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2438,29 +2438,29 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">BMW 2 Series Active Tourer 2022 </t>
+          <t xml:space="preserve">MAZDA CX-60 2022 </t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>39.29</v>
+        <v>61.59</v>
       </c>
       <c r="D59" t="n">
-        <v>21.43</v>
+        <v>24.39</v>
       </c>
       <c r="E59" t="n">
-        <v>7.74</v>
+        <v>7.32</v>
       </c>
       <c r="F59" t="n">
-        <v>3.57</v>
+        <v>6.71</v>
       </c>
       <c r="G59" t="n">
-        <v>17.86</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2472,29 +2472,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">VW Golf 2022 </t>
+          <t xml:space="preserve">BMW 2 Series Active Tourer 2022 </t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>5.36</v>
       </c>
       <c r="C60" t="n">
-        <v>26.88</v>
+        <v>39.29</v>
       </c>
       <c r="D60" t="n">
-        <v>41.88</v>
+        <v>21.43</v>
       </c>
       <c r="E60" t="n">
-        <v>12.5</v>
+        <v>7.74</v>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>3.57</v>
       </c>
       <c r="G60" t="n">
-        <v>3.75</v>
+        <v>17.86</v>
       </c>
       <c r="H60" t="n">
-        <v>5</v>
+        <v>4.76</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2506,29 +2506,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kia Sportage 2022 </t>
+          <t xml:space="preserve">VW Golf 2022 </t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>40</v>
+        <v>26.88</v>
       </c>
       <c r="D61" t="n">
-        <v>20.59</v>
+        <v>41.88</v>
       </c>
       <c r="E61" t="n">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="F61" t="n">
-        <v>7.65</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>9.41</v>
+        <v>3.75</v>
       </c>
       <c r="H61" t="n">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2540,29 +2540,29 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">BMW i4 2022 </t>
+          <t xml:space="preserve">Kia Sportage 2022 </t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>64.84</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
-        <v>23.63</v>
+        <v>20.59</v>
       </c>
       <c r="E62" t="n">
-        <v>7.69</v>
+        <v>20</v>
       </c>
       <c r="F62" t="n">
-        <v>1.65</v>
+        <v>7.65</v>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>9.41</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2574,29 +2574,29 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mercedes Benz T Class 2022 </t>
+          <t xml:space="preserve">BMW i4 2022 </t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>9.77</v>
+        <v>64.84</v>
       </c>
       <c r="D63" t="n">
-        <v>34.48</v>
+        <v>23.63</v>
       </c>
       <c r="E63" t="n">
-        <v>24.71</v>
+        <v>7.69</v>
       </c>
       <c r="F63" t="n">
-        <v>8.050000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="G63" t="n">
-        <v>6.9</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2608,29 +2608,29 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toyota Aygo X 2022 </t>
+          <t xml:space="preserve">Mercedes-Benz T-Class 2022 </t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>11.84</v>
+        <v>10.34</v>
       </c>
       <c r="C64" t="n">
-        <v>29.61</v>
+        <v>9.77</v>
       </c>
       <c r="D64" t="n">
-        <v>34.21</v>
+        <v>34.48</v>
       </c>
       <c r="E64" t="n">
-        <v>10.53</v>
+        <v>24.71</v>
       </c>
       <c r="F64" t="n">
-        <v>0.66</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>7.89</v>
+        <v>6.9</v>
       </c>
       <c r="H64" t="n">
-        <v>5.26</v>
+        <v>5.75</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2642,29 +2642,29 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alfa Romeo Tonale 2022 </t>
+          <t xml:space="preserve">Toyota Aygo X 2022 </t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>11.84</v>
       </c>
       <c r="C65" t="n">
-        <v>22.02</v>
+        <v>29.61</v>
       </c>
       <c r="D65" t="n">
-        <v>29.76</v>
+        <v>34.21</v>
       </c>
       <c r="E65" t="n">
-        <v>16.67</v>
+        <v>10.53</v>
       </c>
       <c r="F65" t="n">
-        <v>11.9</v>
+        <v>0.66</v>
       </c>
       <c r="G65" t="n">
-        <v>17.26</v>
+        <v>7.89</v>
       </c>
       <c r="H65" t="n">
-        <v>2.38</v>
+        <v>5.26</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2676,34 +2676,68 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t xml:space="preserve">Alfa Romeo Tonale 2022 </t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="D66" t="n">
+        <v>29.76</v>
+      </c>
+      <c r="E66" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G66" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t xml:space="preserve">Cupra Born 2022 </t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B67" t="n">
         <v>12.35</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C67" t="n">
         <v>19.75</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D67" t="n">
         <v>27.16</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E67" t="n">
         <v>18.52</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F67" t="n">
         <v>6.17</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G67" t="n">
         <v>9.880000000000001</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H67" t="n">
         <v>6.17</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honda HR-V 2022 </t>
+          <t>Honda HR-V</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dacia Jogger 2021 </t>
+          <t>Dacia Jogger</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DS 4 2022 Standard </t>
+          <t>DS 4</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -602,29 +602,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">DS 4 2022 Safety Pack </t>
+          <t>Volvo C40 Recharge</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>58.33</v>
+        <v>35.88</v>
       </c>
       <c r="D5" t="n">
-        <v>13.69</v>
+        <v>21.18</v>
       </c>
       <c r="E5" t="n">
-        <v>4.17</v>
+        <v>21.18</v>
       </c>
       <c r="F5" t="n">
-        <v>2.98</v>
+        <v>12.35</v>
       </c>
       <c r="G5" t="n">
-        <v>18.45</v>
+        <v>9.41</v>
       </c>
       <c r="H5" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -636,29 +636,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Volvo C40 Recharge 2022 </t>
+          <t>Mercedes-Benz C-Class</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>35.88</v>
+        <v>70.83</v>
       </c>
       <c r="D6" t="n">
-        <v>21.18</v>
+        <v>13.1</v>
       </c>
       <c r="E6" t="n">
-        <v>21.18</v>
+        <v>7.74</v>
       </c>
       <c r="F6" t="n">
-        <v>12.35</v>
+        <v>4.76</v>
       </c>
       <c r="G6" t="n">
-        <v>9.41</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -670,29 +670,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mercedes-Benz C-Class 2022 </t>
+          <t>Kia EV6</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>70.83</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>13.1</v>
+        <v>33.52</v>
       </c>
       <c r="E7" t="n">
-        <v>7.74</v>
+        <v>23.63</v>
       </c>
       <c r="F7" t="n">
-        <v>4.76</v>
+        <v>9.34</v>
       </c>
       <c r="G7" t="n">
-        <v>2.38</v>
+        <v>21.43</v>
       </c>
       <c r="H7" t="n">
-        <v>1.19</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -704,29 +704,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kia EV6 2022 </t>
+          <t>VW Multivan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="C8" t="n">
-        <v>9.890000000000001</v>
+        <v>17.98</v>
       </c>
       <c r="D8" t="n">
-        <v>33.52</v>
+        <v>37.08</v>
       </c>
       <c r="E8" t="n">
-        <v>23.63</v>
+        <v>12.36</v>
       </c>
       <c r="F8" t="n">
-        <v>9.34</v>
+        <v>7.87</v>
       </c>
       <c r="G8" t="n">
-        <v>21.43</v>
+        <v>12.92</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>5.62</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -738,29 +738,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">VW Multivan 2022 </t>
+          <t>Peugeot 308</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.18</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>17.98</v>
+        <v>18.29</v>
       </c>
       <c r="D9" t="n">
-        <v>37.08</v>
+        <v>22.56</v>
       </c>
       <c r="E9" t="n">
-        <v>12.36</v>
+        <v>14.02</v>
       </c>
       <c r="F9" t="n">
-        <v>7.87</v>
+        <v>11.59</v>
       </c>
       <c r="G9" t="n">
-        <v>12.92</v>
+        <v>31.1</v>
       </c>
       <c r="H9" t="n">
-        <v>5.62</v>
+        <v>2.44</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -772,29 +772,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peugeot 308 2022 </t>
+          <t>ORA FUNKY CAT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="C10" t="n">
-        <v>18.29</v>
+        <v>22.02</v>
       </c>
       <c r="D10" t="n">
-        <v>22.56</v>
+        <v>18.45</v>
       </c>
       <c r="E10" t="n">
-        <v>14.02</v>
+        <v>22.62</v>
       </c>
       <c r="F10" t="n">
-        <v>11.59</v>
+        <v>4.76</v>
       </c>
       <c r="G10" t="n">
-        <v>31.1</v>
+        <v>19.05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.44</v>
+        <v>3.57</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -806,29 +806,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ORA Funky Cat 2022 </t>
+          <t>WEY Coffee 01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.52</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>22.02</v>
+        <v>21.02</v>
       </c>
       <c r="D11" t="n">
-        <v>18.45</v>
+        <v>41.48</v>
       </c>
       <c r="E11" t="n">
-        <v>22.62</v>
+        <v>18.75</v>
       </c>
       <c r="F11" t="n">
-        <v>4.76</v>
+        <v>7.95</v>
       </c>
       <c r="G11" t="n">
-        <v>19.05</v>
+        <v>10.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -840,29 +840,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEY Coffee 01 2022 </t>
+          <t>Kia Niro</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>21.02</v>
+        <v>21.43</v>
       </c>
       <c r="D12" t="n">
-        <v>41.48</v>
+        <v>33.33</v>
       </c>
       <c r="E12" t="n">
-        <v>18.75</v>
+        <v>20.83</v>
       </c>
       <c r="F12" t="n">
-        <v>7.95</v>
+        <v>4.17</v>
       </c>
       <c r="G12" t="n">
-        <v>10.8</v>
+        <v>16.67</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -874,29 +874,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kia Niro 2022 Safety Pack </t>
+          <t>Genesis GV60</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>21.43</v>
+        <v>17.58</v>
       </c>
       <c r="D13" t="n">
-        <v>33.33</v>
+        <v>32.97</v>
       </c>
       <c r="E13" t="n">
-        <v>20.83</v>
+        <v>20.33</v>
       </c>
       <c r="F13" t="n">
-        <v>4.17</v>
+        <v>11.54</v>
       </c>
       <c r="G13" t="n">
-        <v>16.67</v>
+        <v>14.29</v>
       </c>
       <c r="H13" t="n">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -908,29 +908,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kia Niro 2022 Standard </t>
+          <t>Tesla Model Y</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>21.43</v>
+        <v>32.98</v>
       </c>
       <c r="D14" t="n">
-        <v>33.33</v>
+        <v>36.17</v>
       </c>
       <c r="E14" t="n">
-        <v>20.83</v>
+        <v>6.91</v>
       </c>
       <c r="F14" t="n">
-        <v>4.17</v>
+        <v>4.79</v>
       </c>
       <c r="G14" t="n">
-        <v>16.67</v>
+        <v>15.96</v>
       </c>
       <c r="H14" t="n">
-        <v>3.57</v>
+        <v>3.19</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -942,29 +942,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genesis GV60 2022 </t>
+          <t>Land Rover Discovery Sport</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>17.58</v>
+        <v>50.6</v>
       </c>
       <c r="D15" t="n">
-        <v>32.97</v>
+        <v>22.62</v>
       </c>
       <c r="E15" t="n">
-        <v>20.33</v>
+        <v>11.9</v>
       </c>
       <c r="F15" t="n">
-        <v>11.54</v>
+        <v>7.74</v>
       </c>
       <c r="G15" t="n">
-        <v>14.29</v>
+        <v>7.14</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -976,29 +976,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tesla Model Y 2022 </t>
+          <t>CHERY OMODA5</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>32.98</v>
+        <v>28.49</v>
       </c>
       <c r="D16" t="n">
-        <v>36.17</v>
+        <v>27.33</v>
       </c>
       <c r="E16" t="n">
-        <v>6.91</v>
+        <v>20.35</v>
       </c>
       <c r="F16" t="n">
-        <v>4.79</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>15.96</v>
+        <v>11.05</v>
       </c>
       <c r="H16" t="n">
-        <v>3.19</v>
+        <v>3.49</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1010,29 +1010,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Land Rover Discovery Sport 2022 </t>
+          <t>Volkswagen ID. Buzz</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>28.24</v>
       </c>
       <c r="C17" t="n">
-        <v>50.6</v>
+        <v>12.94</v>
       </c>
       <c r="D17" t="n">
-        <v>22.62</v>
+        <v>11.18</v>
       </c>
       <c r="E17" t="n">
-        <v>11.9</v>
+        <v>18.82</v>
       </c>
       <c r="F17" t="n">
-        <v>7.74</v>
+        <v>7.65</v>
       </c>
       <c r="G17" t="n">
-        <v>7.14</v>
+        <v>14.12</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.06</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1044,29 +1044,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHERY OMODA5 2022 </t>
+          <t>Volkswagen Touran</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>13.25</v>
       </c>
       <c r="C18" t="n">
-        <v>28.49</v>
+        <v>42.77</v>
       </c>
       <c r="D18" t="n">
-        <v>27.33</v>
+        <v>21.08</v>
       </c>
       <c r="E18" t="n">
-        <v>20.35</v>
+        <v>11.45</v>
       </c>
       <c r="F18" t="n">
-        <v>9.300000000000001</v>
+        <v>1.81</v>
       </c>
       <c r="G18" t="n">
-        <v>11.05</v>
+        <v>2.41</v>
       </c>
       <c r="H18" t="n">
-        <v>3.49</v>
+        <v>7.23</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1078,29 +1078,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">VW ID Buzz 2022 </t>
+          <t>Lexus RX</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.24</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>12.94</v>
+        <v>37.91</v>
       </c>
       <c r="D19" t="n">
-        <v>11.18</v>
+        <v>35.71</v>
       </c>
       <c r="E19" t="n">
-        <v>18.82</v>
+        <v>12.09</v>
       </c>
       <c r="F19" t="n">
-        <v>7.65</v>
+        <v>10.44</v>
       </c>
       <c r="G19" t="n">
-        <v>14.12</v>
+        <v>2.75</v>
       </c>
       <c r="H19" t="n">
-        <v>7.06</v>
+        <v>1.1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1112,29 +1112,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">VW Touran 2022 </t>
+          <t>Skoda Octavia</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.25</v>
+        <v>1.19</v>
       </c>
       <c r="C20" t="n">
-        <v>42.77</v>
+        <v>22.62</v>
       </c>
       <c r="D20" t="n">
-        <v>21.08</v>
+        <v>40.48</v>
       </c>
       <c r="E20" t="n">
-        <v>11.45</v>
+        <v>23.21</v>
       </c>
       <c r="F20" t="n">
-        <v>1.81</v>
+        <v>4.17</v>
       </c>
       <c r="G20" t="n">
-        <v>2.41</v>
+        <v>3.57</v>
       </c>
       <c r="H20" t="n">
-        <v>7.23</v>
+        <v>4.76</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1146,29 +1146,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lexus RX 2022 </t>
+          <t>MG 4 Electric</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>11.63</v>
       </c>
       <c r="C21" t="n">
-        <v>37.91</v>
+        <v>15.12</v>
       </c>
       <c r="D21" t="n">
-        <v>35.71</v>
+        <v>27.91</v>
       </c>
       <c r="E21" t="n">
-        <v>12.09</v>
+        <v>26.16</v>
       </c>
       <c r="F21" t="n">
-        <v>10.44</v>
+        <v>2.33</v>
       </c>
       <c r="G21" t="n">
-        <v>2.75</v>
+        <v>12.21</v>
       </c>
       <c r="H21" t="n">
-        <v>1.1</v>
+        <v>4.65</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1180,29 +1180,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Škoda Octavia 2022 </t>
+          <t>Ford Ranger</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>22.62</v>
+        <v>35.19</v>
       </c>
       <c r="D22" t="n">
-        <v>40.48</v>
+        <v>38.89</v>
       </c>
       <c r="E22" t="n">
-        <v>23.21</v>
+        <v>10.49</v>
       </c>
       <c r="F22" t="n">
-        <v>4.17</v>
+        <v>3.09</v>
       </c>
       <c r="G22" t="n">
-        <v>3.57</v>
+        <v>12.35</v>
       </c>
       <c r="H22" t="n">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1214,29 +1214,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">MG 4 Electric 2022 </t>
+          <t>Lucid Air</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.63</v>
+        <v>3.65</v>
       </c>
       <c r="C23" t="n">
-        <v>15.12</v>
+        <v>27.08</v>
       </c>
       <c r="D23" t="n">
-        <v>27.91</v>
+        <v>29.17</v>
       </c>
       <c r="E23" t="n">
-        <v>26.16</v>
+        <v>13.02</v>
       </c>
       <c r="F23" t="n">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="G23" t="n">
-        <v>12.21</v>
+        <v>21.88</v>
       </c>
       <c r="H23" t="n">
-        <v>4.65</v>
+        <v>3.12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1248,26 +1248,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ford Ranger 2022 </t>
+          <t>Jeep Grand Cherokee</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>35.19</v>
+        <v>37.8</v>
       </c>
       <c r="D24" t="n">
-        <v>38.89</v>
+        <v>25</v>
       </c>
       <c r="E24" t="n">
-        <v>10.49</v>
+        <v>17.07</v>
       </c>
       <c r="F24" t="n">
-        <v>3.09</v>
+        <v>9.15</v>
       </c>
       <c r="G24" t="n">
-        <v>12.35</v>
+        <v>10.98</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1282,29 +1282,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lucid Air 2022 </t>
+          <t>Volkswagen Amarok</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>27.08</v>
+        <v>35.19</v>
       </c>
       <c r="D25" t="n">
-        <v>29.17</v>
+        <v>38.89</v>
       </c>
       <c r="E25" t="n">
-        <v>13.02</v>
+        <v>10.49</v>
       </c>
       <c r="F25" t="n">
-        <v>2.08</v>
+        <v>3.09</v>
       </c>
       <c r="G25" t="n">
-        <v>21.88</v>
+        <v>12.35</v>
       </c>
       <c r="H25" t="n">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1316,26 +1316,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeep Grand Cherokee 2022 </t>
+          <t>Mercedes-Benz GLC</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>37.8</v>
+        <v>22.78</v>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>51.11</v>
       </c>
       <c r="E26" t="n">
-        <v>17.07</v>
+        <v>15.56</v>
       </c>
       <c r="F26" t="n">
-        <v>9.15</v>
+        <v>8.33</v>
       </c>
       <c r="G26" t="n">
-        <v>10.98</v>
+        <v>2.22</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1350,29 +1350,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">VW Amarok 2022 </t>
+          <t>Maxus MIFA 9</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>35.19</v>
+        <v>14.37</v>
       </c>
       <c r="D27" t="n">
-        <v>38.89</v>
+        <v>36.21</v>
       </c>
       <c r="E27" t="n">
-        <v>10.49</v>
+        <v>17.82</v>
       </c>
       <c r="F27" t="n">
-        <v>3.09</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>12.35</v>
+        <v>17.82</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1384,29 +1384,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mercedes-Benz GLC 2022 </t>
+          <t>Ford Puma</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="C28" t="n">
-        <v>22.78</v>
+        <v>17.9</v>
       </c>
       <c r="D28" t="n">
-        <v>51.11</v>
+        <v>24.69</v>
       </c>
       <c r="E28" t="n">
-        <v>15.56</v>
+        <v>21.6</v>
       </c>
       <c r="F28" t="n">
-        <v>8.33</v>
+        <v>7.41</v>
       </c>
       <c r="G28" t="n">
-        <v>2.22</v>
+        <v>19.14</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1418,29 +1418,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maxus MIFA 9 2022 </t>
+          <t>BMW 2 Series Coupé</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>14.37</v>
+        <v>61.18</v>
       </c>
       <c r="D29" t="n">
-        <v>36.21</v>
+        <v>19.41</v>
       </c>
       <c r="E29" t="n">
-        <v>17.82</v>
+        <v>11.18</v>
       </c>
       <c r="F29" t="n">
-        <v>9.199999999999999</v>
+        <v>1.76</v>
       </c>
       <c r="G29" t="n">
-        <v>17.82</v>
+        <v>6.47</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1452,29 +1452,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ford Puma 2022 </t>
+          <t>Renault Megane E-Tech</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.32</v>
+        <v>5.36</v>
       </c>
       <c r="C30" t="n">
-        <v>17.9</v>
+        <v>20.83</v>
       </c>
       <c r="D30" t="n">
-        <v>24.69</v>
+        <v>24.4</v>
       </c>
       <c r="E30" t="n">
-        <v>21.6</v>
+        <v>28.57</v>
       </c>
       <c r="F30" t="n">
-        <v>7.41</v>
+        <v>4.17</v>
       </c>
       <c r="G30" t="n">
-        <v>19.14</v>
+        <v>10.71</v>
       </c>
       <c r="H30" t="n">
-        <v>4.94</v>
+        <v>5.95</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1486,29 +1486,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">BMW 2 Series Coupe 2022 </t>
+          <t>Volkswagen Polo</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>10.13</v>
       </c>
       <c r="C31" t="n">
-        <v>61.18</v>
+        <v>21.52</v>
       </c>
       <c r="D31" t="n">
-        <v>19.41</v>
+        <v>33.54</v>
       </c>
       <c r="E31" t="n">
-        <v>11.18</v>
+        <v>15.19</v>
       </c>
       <c r="F31" t="n">
-        <v>1.76</v>
+        <v>8.23</v>
       </c>
       <c r="G31" t="n">
-        <v>6.47</v>
+        <v>5.06</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>6.33</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1520,29 +1520,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renault Megane E-Tech 2022 </t>
+          <t>Lexus NX</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>20.83</v>
+        <v>35.88</v>
       </c>
       <c r="D32" t="n">
-        <v>24.4</v>
+        <v>30.59</v>
       </c>
       <c r="E32" t="n">
-        <v>28.57</v>
+        <v>18.24</v>
       </c>
       <c r="F32" t="n">
-        <v>4.17</v>
+        <v>9.41</v>
       </c>
       <c r="G32" t="n">
-        <v>10.71</v>
+        <v>3.53</v>
       </c>
       <c r="H32" t="n">
-        <v>5.95</v>
+        <v>2.35</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1554,29 +1554,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">VW Polo 2022 </t>
+          <t>Volkswagen Taigo</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.13</v>
+        <v>4.61</v>
       </c>
       <c r="C33" t="n">
-        <v>21.52</v>
+        <v>23.03</v>
       </c>
       <c r="D33" t="n">
-        <v>33.54</v>
+        <v>32.89</v>
       </c>
       <c r="E33" t="n">
-        <v>15.19</v>
+        <v>19.08</v>
       </c>
       <c r="F33" t="n">
-        <v>8.23</v>
+        <v>11.18</v>
       </c>
       <c r="G33" t="n">
-        <v>5.06</v>
+        <v>3.95</v>
       </c>
       <c r="H33" t="n">
-        <v>6.33</v>
+        <v>5.26</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1588,29 +1588,29 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lexus NX 2022 </t>
+          <t>Nissan Ariya</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>35.88</v>
+        <v>29.41</v>
       </c>
       <c r="D34" t="n">
-        <v>30.59</v>
+        <v>36.47</v>
       </c>
       <c r="E34" t="n">
-        <v>18.24</v>
+        <v>11.76</v>
       </c>
       <c r="F34" t="n">
-        <v>9.41</v>
+        <v>8.82</v>
       </c>
       <c r="G34" t="n">
+        <v>10</v>
+      </c>
+      <c r="H34" t="n">
         <v>3.53</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2.35</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1622,29 +1622,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">VW Taigo 2022 </t>
+          <t>smart #1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.61</v>
+        <v>1.79</v>
       </c>
       <c r="C35" t="n">
-        <v>23.03</v>
+        <v>22.62</v>
       </c>
       <c r="D35" t="n">
-        <v>32.89</v>
+        <v>34.52</v>
       </c>
       <c r="E35" t="n">
-        <v>19.08</v>
+        <v>19.05</v>
       </c>
       <c r="F35" t="n">
-        <v>11.18</v>
+        <v>8.93</v>
       </c>
       <c r="G35" t="n">
-        <v>3.95</v>
+        <v>10.71</v>
       </c>
       <c r="H35" t="n">
-        <v>5.26</v>
+        <v>2.38</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1656,29 +1656,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">VW Polo 2022 </t>
+          <t>Hyundai IONIQ 6</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10.13</v>
+        <v>4.49</v>
       </c>
       <c r="C36" t="n">
-        <v>21.52</v>
+        <v>3.37</v>
       </c>
       <c r="D36" t="n">
-        <v>33.54</v>
+        <v>14.04</v>
       </c>
       <c r="E36" t="n">
-        <v>15.19</v>
+        <v>36.52</v>
       </c>
       <c r="F36" t="n">
-        <v>8.23</v>
+        <v>20.22</v>
       </c>
       <c r="G36" t="n">
-        <v>5.06</v>
+        <v>17.98</v>
       </c>
       <c r="H36" t="n">
-        <v>6.33</v>
+        <v>3.37</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1690,29 +1690,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nissan Ariya 2022 </t>
+          <t>Toyota Corolla Cross</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>29.41</v>
+        <v>45.83</v>
       </c>
       <c r="D37" t="n">
-        <v>36.47</v>
+        <v>34.52</v>
       </c>
       <c r="E37" t="n">
-        <v>11.76</v>
+        <v>11.31</v>
       </c>
       <c r="F37" t="n">
-        <v>8.82</v>
+        <v>2.38</v>
       </c>
       <c r="G37" t="n">
-        <v>10</v>
+        <v>3.57</v>
       </c>
       <c r="H37" t="n">
-        <v>3.53</v>
+        <v>2.38</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1724,29 +1724,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">smart 1 2022 </t>
+          <t>Land Rover Range Rover Sport</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>22.62</v>
+        <v>31.67</v>
       </c>
       <c r="D38" t="n">
-        <v>34.52</v>
+        <v>23.89</v>
       </c>
       <c r="E38" t="n">
-        <v>19.05</v>
+        <v>22.78</v>
       </c>
       <c r="F38" t="n">
-        <v>8.93</v>
+        <v>9.44</v>
       </c>
       <c r="G38" t="n">
-        <v>10.71</v>
+        <v>12.22</v>
       </c>
       <c r="H38" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1758,29 +1758,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyundai IONIQ 6 2022 </t>
+          <t>Isuzu D-Max Crew Cab</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.49</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>3.37</v>
+        <v>14.2</v>
       </c>
       <c r="D39" t="n">
-        <v>14.04</v>
+        <v>51.85</v>
       </c>
       <c r="E39" t="n">
-        <v>36.52</v>
+        <v>22.84</v>
       </c>
       <c r="F39" t="n">
-        <v>20.22</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>17.98</v>
+        <v>2.47</v>
       </c>
       <c r="H39" t="n">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1792,29 +1792,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toyota Corolla Cross 2022 </t>
+          <t>NIO ET7</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>45.83</v>
+        <v>22.53</v>
       </c>
       <c r="D40" t="n">
-        <v>34.52</v>
+        <v>46.7</v>
       </c>
       <c r="E40" t="n">
-        <v>11.31</v>
+        <v>12.64</v>
       </c>
       <c r="F40" t="n">
-        <v>2.38</v>
+        <v>7.69</v>
       </c>
       <c r="G40" t="n">
-        <v>3.57</v>
+        <v>10.44</v>
       </c>
       <c r="H40" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -1826,26 +1826,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Range Rover Sport 2022 </t>
+          <t>Land Rover Range Rover</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>31.67</v>
+        <v>26.67</v>
       </c>
       <c r="D41" t="n">
-        <v>23.89</v>
+        <v>38.33</v>
       </c>
       <c r="E41" t="n">
-        <v>22.78</v>
+        <v>17.78</v>
       </c>
       <c r="F41" t="n">
-        <v>9.44</v>
+        <v>6.11</v>
       </c>
       <c r="G41" t="n">
-        <v>12.22</v>
+        <v>11.11</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1860,29 +1860,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Isuzu D-MAX Crew Cab 2022 </t>
+          <t>Renault Austral</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>14.2</v>
+        <v>19.05</v>
       </c>
       <c r="D42" t="n">
-        <v>51.85</v>
+        <v>25.6</v>
       </c>
       <c r="E42" t="n">
-        <v>22.84</v>
+        <v>30.95</v>
       </c>
       <c r="F42" t="n">
-        <v>8.640000000000001</v>
+        <v>10.12</v>
       </c>
       <c r="G42" t="n">
-        <v>2.47</v>
+        <v>10.71</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1894,29 +1894,29 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">NIO ET7 2022 </t>
+          <t>DS 9</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>22.53</v>
+        <v>51.76</v>
       </c>
       <c r="D43" t="n">
-        <v>46.7</v>
+        <v>18.24</v>
       </c>
       <c r="E43" t="n">
-        <v>12.64</v>
+        <v>7.06</v>
       </c>
       <c r="F43" t="n">
-        <v>7.69</v>
+        <v>2.94</v>
       </c>
       <c r="G43" t="n">
-        <v>10.44</v>
+        <v>17.65</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -1928,29 +1928,29 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Range Rover 2022 </t>
+          <t>Tesla Model S</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>26.67</v>
+        <v>35.57</v>
       </c>
       <c r="D44" t="n">
-        <v>38.33</v>
+        <v>41.24</v>
       </c>
       <c r="E44" t="n">
-        <v>17.78</v>
+        <v>5.67</v>
       </c>
       <c r="F44" t="n">
-        <v>6.11</v>
+        <v>4.64</v>
       </c>
       <c r="G44" t="n">
-        <v>11.11</v>
+        <v>10.82</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -1962,29 +1962,29 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Renault Austral 2022 </t>
+          <t>Honda Civic</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>19.05</v>
+        <v>41.76</v>
       </c>
       <c r="D45" t="n">
-        <v>25.6</v>
+        <v>35.88</v>
       </c>
       <c r="E45" t="n">
-        <v>30.95</v>
+        <v>7.06</v>
       </c>
       <c r="F45" t="n">
-        <v>10.12</v>
+        <v>4.71</v>
       </c>
       <c r="G45" t="n">
-        <v>10.71</v>
+        <v>7.06</v>
       </c>
       <c r="H45" t="n">
-        <v>3.57</v>
+        <v>3.53</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -1996,26 +1996,26 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">DS 9 2022 </t>
+          <t>Nissan X-Trail</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>51.76</v>
+        <v>32.94</v>
       </c>
       <c r="D46" t="n">
-        <v>18.24</v>
+        <v>34.12</v>
       </c>
       <c r="E46" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="F46" t="n">
         <v>7.06</v>
       </c>
-      <c r="F46" t="n">
-        <v>2.94</v>
-      </c>
       <c r="G46" t="n">
-        <v>17.65</v>
+        <v>11.18</v>
       </c>
       <c r="H46" t="n">
         <v>2.35</v>
@@ -2030,29 +2030,29 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tesla Model S 2022 </t>
+          <t>WEY Coffee 02</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>35.57</v>
+        <v>27.22</v>
       </c>
       <c r="D47" t="n">
-        <v>41.24</v>
+        <v>32.22</v>
       </c>
       <c r="E47" t="n">
-        <v>5.67</v>
+        <v>23.33</v>
       </c>
       <c r="F47" t="n">
-        <v>4.64</v>
+        <v>7.22</v>
       </c>
       <c r="G47" t="n">
-        <v>10.82</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2064,29 +2064,29 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Honda Civic 2022 </t>
+          <t>Toyota bZ4X</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>41.76</v>
+        <v>35.06</v>
       </c>
       <c r="D48" t="n">
-        <v>35.88</v>
+        <v>28.16</v>
       </c>
       <c r="E48" t="n">
-        <v>7.06</v>
+        <v>22.99</v>
       </c>
       <c r="F48" t="n">
-        <v>4.71</v>
+        <v>4.6</v>
       </c>
       <c r="G48" t="n">
-        <v>7.06</v>
+        <v>5.75</v>
       </c>
       <c r="H48" t="n">
-        <v>3.53</v>
+        <v>3.45</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2098,29 +2098,29 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nissan X Trail 2021 </t>
+          <t>Seat Ibiza</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="C49" t="n">
-        <v>32.94</v>
+        <v>16.05</v>
       </c>
       <c r="D49" t="n">
-        <v>34.12</v>
+        <v>26.54</v>
       </c>
       <c r="E49" t="n">
-        <v>12.35</v>
+        <v>24.07</v>
       </c>
       <c r="F49" t="n">
-        <v>7.06</v>
+        <v>5.56</v>
       </c>
       <c r="G49" t="n">
-        <v>11.18</v>
+        <v>10.49</v>
       </c>
       <c r="H49" t="n">
-        <v>2.35</v>
+        <v>6.17</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2132,29 +2132,29 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">WEY Coffee 02 2022 </t>
+          <t>BMW X1</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>27.22</v>
+        <v>47.53</v>
       </c>
       <c r="D50" t="n">
-        <v>32.22</v>
+        <v>32.72</v>
       </c>
       <c r="E50" t="n">
-        <v>23.33</v>
+        <v>4.94</v>
       </c>
       <c r="F50" t="n">
-        <v>7.22</v>
+        <v>4.32</v>
       </c>
       <c r="G50" t="n">
-        <v>10</v>
+        <v>9.26</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2166,29 +2166,29 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toyota bZ4X 2022 </t>
+          <t>Mobilize Limo</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>5.29</v>
       </c>
       <c r="C51" t="n">
-        <v>35.06</v>
+        <v>14.12</v>
       </c>
       <c r="D51" t="n">
-        <v>28.16</v>
+        <v>33.53</v>
       </c>
       <c r="E51" t="n">
-        <v>22.99</v>
+        <v>15.29</v>
       </c>
       <c r="F51" t="n">
-        <v>4.6</v>
+        <v>8.82</v>
       </c>
       <c r="G51" t="n">
-        <v>5.75</v>
+        <v>18.24</v>
       </c>
       <c r="H51" t="n">
-        <v>3.45</v>
+        <v>4.71</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2200,29 +2200,29 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEAT Ibiza 2022 </t>
+          <t>Mercedes-EQ EQE</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>11.11</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>16.05</v>
+        <v>44.02</v>
       </c>
       <c r="D52" t="n">
-        <v>26.54</v>
+        <v>30.43</v>
       </c>
       <c r="E52" t="n">
-        <v>24.07</v>
+        <v>9.24</v>
       </c>
       <c r="F52" t="n">
-        <v>5.56</v>
+        <v>2.72</v>
       </c>
       <c r="G52" t="n">
-        <v>10.49</v>
+        <v>10.33</v>
       </c>
       <c r="H52" t="n">
-        <v>6.17</v>
+        <v>3.26</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2234,29 +2234,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">BMW X1 2022 </t>
+          <t>BYD Atto 3</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>47.53</v>
+        <v>21.51</v>
       </c>
       <c r="D53" t="n">
-        <v>32.72</v>
+        <v>36.63</v>
       </c>
       <c r="E53" t="n">
-        <v>4.94</v>
+        <v>18.02</v>
       </c>
       <c r="F53" t="n">
-        <v>4.32</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>9.26</v>
+        <v>11.63</v>
       </c>
       <c r="H53" t="n">
-        <v>1.23</v>
+        <v>3.49</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2268,29 +2268,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mobilize Limo 2022 </t>
+          <t>Citroën C5 X</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.29</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>14.12</v>
+        <v>60</v>
       </c>
       <c r="D54" t="n">
-        <v>33.53</v>
+        <v>19.41</v>
       </c>
       <c r="E54" t="n">
-        <v>15.29</v>
+        <v>1.18</v>
       </c>
       <c r="F54" t="n">
-        <v>8.82</v>
+        <v>2.35</v>
       </c>
       <c r="G54" t="n">
-        <v>18.24</v>
+        <v>14.71</v>
       </c>
       <c r="H54" t="n">
-        <v>4.71</v>
+        <v>2.35</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2302,29 +2302,29 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mercedes-EQ EQE 2022 </t>
+          <t>SEAT Arona</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>5.56</v>
       </c>
       <c r="C55" t="n">
-        <v>44.02</v>
+        <v>23.46</v>
       </c>
       <c r="D55" t="n">
-        <v>30.43</v>
+        <v>28.4</v>
       </c>
       <c r="E55" t="n">
-        <v>9.24</v>
+        <v>20.37</v>
       </c>
       <c r="F55" t="n">
-        <v>2.72</v>
+        <v>8.02</v>
       </c>
       <c r="G55" t="n">
-        <v>10.33</v>
+        <v>9.26</v>
       </c>
       <c r="H55" t="n">
-        <v>3.26</v>
+        <v>4.94</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2336,29 +2336,29 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">BYD ATTO 3 2022 </t>
+          <t>Mazda MAZDA CX-60</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>21.51</v>
+        <v>61.59</v>
       </c>
       <c r="D56" t="n">
-        <v>36.63</v>
+        <v>24.39</v>
       </c>
       <c r="E56" t="n">
-        <v>18.02</v>
+        <v>7.32</v>
       </c>
       <c r="F56" t="n">
-        <v>8.720000000000001</v>
+        <v>6.71</v>
       </c>
       <c r="G56" t="n">
-        <v>11.63</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2370,29 +2370,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Citroen C5 X 2022 </t>
+          <t>BMW 2 Series Active Tourer</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>5.36</v>
       </c>
       <c r="C57" t="n">
-        <v>60</v>
+        <v>39.29</v>
       </c>
       <c r="D57" t="n">
-        <v>19.41</v>
+        <v>21.43</v>
       </c>
       <c r="E57" t="n">
-        <v>1.18</v>
+        <v>7.74</v>
       </c>
       <c r="F57" t="n">
-        <v>2.35</v>
+        <v>3.57</v>
       </c>
       <c r="G57" t="n">
-        <v>14.71</v>
+        <v>17.86</v>
       </c>
       <c r="H57" t="n">
-        <v>2.35</v>
+        <v>4.76</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2404,29 +2404,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEAT Arona 2022 </t>
+          <t>Volkswagen Golf</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.56</v>
+        <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>23.46</v>
+        <v>26.88</v>
       </c>
       <c r="D58" t="n">
-        <v>28.4</v>
+        <v>41.88</v>
       </c>
       <c r="E58" t="n">
-        <v>20.37</v>
+        <v>12.5</v>
       </c>
       <c r="F58" t="n">
-        <v>8.02</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>9.26</v>
+        <v>3.75</v>
       </c>
       <c r="H58" t="n">
-        <v>4.94</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2438,29 +2438,29 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">MAZDA CX-60 2022 </t>
+          <t>Kia Sportage</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>61.59</v>
+        <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>24.39</v>
+        <v>20.59</v>
       </c>
       <c r="E59" t="n">
-        <v>7.32</v>
+        <v>20</v>
       </c>
       <c r="F59" t="n">
-        <v>6.71</v>
+        <v>7.65</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>9.41</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2472,29 +2472,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">BMW 2 Series Active Tourer 2022 </t>
+          <t>BMW i4</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>39.29</v>
+        <v>64.84</v>
       </c>
       <c r="D60" t="n">
-        <v>21.43</v>
+        <v>23.63</v>
       </c>
       <c r="E60" t="n">
-        <v>7.74</v>
+        <v>7.69</v>
       </c>
       <c r="F60" t="n">
-        <v>3.57</v>
+        <v>1.65</v>
       </c>
       <c r="G60" t="n">
-        <v>17.86</v>
+        <v>2.2</v>
       </c>
       <c r="H60" t="n">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2506,29 +2506,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">VW Golf 2022 </t>
+          <t>Mercedes-Benz T-Class</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>10.34</v>
       </c>
       <c r="C61" t="n">
-        <v>26.88</v>
+        <v>9.77</v>
       </c>
       <c r="D61" t="n">
-        <v>41.88</v>
+        <v>34.48</v>
       </c>
       <c r="E61" t="n">
-        <v>12.5</v>
+        <v>24.71</v>
       </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>3.75</v>
+        <v>6.9</v>
       </c>
       <c r="H61" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2540,29 +2540,29 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kia Sportage 2022 </t>
+          <t>Toyota Aygo X</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>11.84</v>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>29.61</v>
       </c>
       <c r="D62" t="n">
-        <v>20.59</v>
+        <v>34.21</v>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>10.53</v>
       </c>
       <c r="F62" t="n">
-        <v>7.65</v>
+        <v>0.66</v>
       </c>
       <c r="G62" t="n">
-        <v>9.41</v>
+        <v>7.89</v>
       </c>
       <c r="H62" t="n">
-        <v>2.35</v>
+        <v>5.26</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2574,29 +2574,29 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">BMW i4 2022 </t>
+          <t>Alfa Romeo Tonale</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>64.84</v>
+        <v>22.02</v>
       </c>
       <c r="D63" t="n">
-        <v>23.63</v>
+        <v>29.76</v>
       </c>
       <c r="E63" t="n">
-        <v>7.69</v>
+        <v>16.67</v>
       </c>
       <c r="F63" t="n">
-        <v>1.65</v>
+        <v>11.9</v>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>17.26</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2608,136 +2608,34 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mercedes-Benz T-Class 2022 </t>
+          <t>Cupra Born</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10.34</v>
+        <v>12.35</v>
       </c>
       <c r="C64" t="n">
-        <v>9.77</v>
+        <v>19.75</v>
       </c>
       <c r="D64" t="n">
-        <v>34.48</v>
+        <v>27.16</v>
       </c>
       <c r="E64" t="n">
-        <v>24.71</v>
+        <v>18.52</v>
       </c>
       <c r="F64" t="n">
-        <v>8.050000000000001</v>
+        <v>6.17</v>
       </c>
       <c r="G64" t="n">
-        <v>6.9</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>5.75</v>
+        <v>6.17</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toyota Aygo X 2022 </t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>11.84</v>
-      </c>
-      <c r="C65" t="n">
-        <v>29.61</v>
-      </c>
-      <c r="D65" t="n">
-        <v>34.21</v>
-      </c>
-      <c r="E65" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G65" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="H65" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfa Romeo Tonale 2022 </t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="D66" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="E66" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="F66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="G66" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cupra Born 2022 </t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="C67" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="D67" t="n">
-        <v>27.16</v>
-      </c>
-      <c r="E67" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="F67" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="G67" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -134,6 +135,236 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2642,4 +2873,29 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="27"/>
+    <row r="53"/>
+    <row r="79"/>
+    <row r="105"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2022_cars_combined.xlsx
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.76</v>
+        <v>39.75903614457831</v>
       </c>
       <c r="D2" t="n">
-        <v>35.54</v>
+        <v>35.54216867469879</v>
       </c>
       <c r="E2" t="n">
-        <v>11.45</v>
+        <v>11.44578313253012</v>
       </c>
       <c r="F2" t="n">
-        <v>7.83</v>
+        <v>7.83132530120482</v>
       </c>
       <c r="G2" t="n">
-        <v>3.01</v>
+        <v>3.012048192771084</v>
       </c>
       <c r="H2" t="n">
-        <v>2.41</v>
+        <v>2.409638554216868</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -769,25 +769,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.9</v>
+        <v>3.896103896103896</v>
       </c>
       <c r="C3" t="n">
-        <v>27.92</v>
+        <v>27.92207792207792</v>
       </c>
       <c r="D3" t="n">
-        <v>25.97</v>
+        <v>25.97402597402597</v>
       </c>
       <c r="E3" t="n">
-        <v>17.53</v>
+        <v>17.53246753246753</v>
       </c>
       <c r="F3" t="n">
-        <v>3.9</v>
+        <v>3.896103896103896</v>
       </c>
       <c r="G3" t="n">
-        <v>14.29</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H3" t="n">
-        <v>6.49</v>
+        <v>6.493506493506493</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -806,22 +806,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>58.33</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>13.69</v>
+        <v>13.69047619047619</v>
       </c>
       <c r="E4" t="n">
-        <v>4.17</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="F4" t="n">
-        <v>2.98</v>
+        <v>2.976190476190476</v>
       </c>
       <c r="G4" t="n">
-        <v>18.45</v>
+        <v>18.45238095238095</v>
       </c>
       <c r="H4" t="n">
-        <v>2.38</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -840,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>35.88</v>
+        <v>35.88235294117647</v>
       </c>
       <c r="D5" t="n">
-        <v>21.18</v>
+        <v>21.17647058823529</v>
       </c>
       <c r="E5" t="n">
-        <v>21.18</v>
+        <v>21.17647058823529</v>
       </c>
       <c r="F5" t="n">
-        <v>12.35</v>
+        <v>12.35294117647059</v>
       </c>
       <c r="G5" t="n">
-        <v>9.41</v>
+        <v>9.411764705882353</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -874,22 +874,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>70.83</v>
+        <v>70.83333333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>13.1</v>
+        <v>13.0952380952381</v>
       </c>
       <c r="E6" t="n">
-        <v>7.74</v>
+        <v>7.738095238095238</v>
       </c>
       <c r="F6" t="n">
-        <v>4.76</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="H6" t="n">
-        <v>1.19</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -908,22 +908,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>9.890000000000001</v>
+        <v>9.890109890109891</v>
       </c>
       <c r="D7" t="n">
-        <v>33.52</v>
+        <v>33.51648351648351</v>
       </c>
       <c r="E7" t="n">
-        <v>23.63</v>
+        <v>23.62637362637362</v>
       </c>
       <c r="F7" t="n">
-        <v>9.34</v>
+        <v>9.340659340659341</v>
       </c>
       <c r="G7" t="n">
-        <v>21.43</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -939,25 +939,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.18</v>
+        <v>6.179775280898876</v>
       </c>
       <c r="C8" t="n">
-        <v>17.98</v>
+        <v>17.97752808988764</v>
       </c>
       <c r="D8" t="n">
-        <v>37.08</v>
+        <v>37.07865168539326</v>
       </c>
       <c r="E8" t="n">
-        <v>12.36</v>
+        <v>12.35955056179775</v>
       </c>
       <c r="F8" t="n">
-        <v>7.87</v>
+        <v>7.865168539325842</v>
       </c>
       <c r="G8" t="n">
-        <v>12.92</v>
+        <v>12.92134831460674</v>
       </c>
       <c r="H8" t="n">
-        <v>5.62</v>
+        <v>5.617977528089887</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -976,22 +976,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>18.29</v>
+        <v>18.29268292682927</v>
       </c>
       <c r="D9" t="n">
-        <v>22.56</v>
+        <v>22.5609756097561</v>
       </c>
       <c r="E9" t="n">
-        <v>14.02</v>
+        <v>14.02439024390244</v>
       </c>
       <c r="F9" t="n">
-        <v>11.59</v>
+        <v>11.58536585365854</v>
       </c>
       <c r="G9" t="n">
-        <v>31.1</v>
+        <v>31.09756097560976</v>
       </c>
       <c r="H9" t="n">
-        <v>2.44</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1007,31 +1007,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.52</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="C10" t="n">
-        <v>22.02</v>
+        <v>22.02380952380952</v>
       </c>
       <c r="D10" t="n">
-        <v>18.45</v>
+        <v>18.45238095238095</v>
       </c>
       <c r="E10" t="n">
-        <v>22.62</v>
+        <v>22.61904761904762</v>
       </c>
       <c r="F10" t="n">
-        <v>4.76</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="G10" t="n">
-        <v>19.05</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="H10" t="n">
-        <v>3.57</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1044,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>21.02</v>
+        <v>21.02272727272727</v>
       </c>
       <c r="D11" t="n">
-        <v>41.48</v>
+        <v>41.47727272727273</v>
       </c>
       <c r="E11" t="n">
         <v>18.75</v>
       </c>
       <c r="F11" t="n">
-        <v>7.95</v>
+        <v>7.954545454545454</v>
       </c>
       <c r="G11" t="n">
-        <v>10.8</v>
+        <v>10.79545454545454</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1078,28 +1078,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>21.43</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="D12" t="n">
-        <v>33.33</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>20.83</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="F12" t="n">
-        <v>4.17</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="G12" t="n">
-        <v>16.67</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>3.57</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1112,28 +1112,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>17.58</v>
+        <v>17.58241758241758</v>
       </c>
       <c r="D13" t="n">
-        <v>32.97</v>
+        <v>32.96703296703296</v>
       </c>
       <c r="E13" t="n">
-        <v>20.33</v>
+        <v>20.32967032967033</v>
       </c>
       <c r="F13" t="n">
-        <v>11.54</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="G13" t="n">
-        <v>14.29</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.296703296703297</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1146,22 +1146,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>32.98</v>
+        <v>32.97872340425532</v>
       </c>
       <c r="D14" t="n">
-        <v>36.17</v>
+        <v>36.17021276595745</v>
       </c>
       <c r="E14" t="n">
-        <v>6.91</v>
+        <v>6.914893617021277</v>
       </c>
       <c r="F14" t="n">
-        <v>4.79</v>
+        <v>4.787234042553192</v>
       </c>
       <c r="G14" t="n">
-        <v>15.96</v>
+        <v>15.95744680851064</v>
       </c>
       <c r="H14" t="n">
-        <v>3.19</v>
+        <v>3.191489361702128</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>50.6</v>
+        <v>50.59523809523809</v>
       </c>
       <c r="D15" t="n">
-        <v>22.62</v>
+        <v>22.61904761904762</v>
       </c>
       <c r="E15" t="n">
-        <v>11.9</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="F15" t="n">
-        <v>7.74</v>
+        <v>7.738095238095238</v>
       </c>
       <c r="G15" t="n">
-        <v>7.14</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>28.49</v>
+        <v>28.48837209302325</v>
       </c>
       <c r="D16" t="n">
-        <v>27.33</v>
+        <v>27.32558139534883</v>
       </c>
       <c r="E16" t="n">
-        <v>20.35</v>
+        <v>20.34883720930232</v>
       </c>
       <c r="F16" t="n">
-        <v>9.300000000000001</v>
+        <v>9.302325581395349</v>
       </c>
       <c r="G16" t="n">
-        <v>11.05</v>
+        <v>11.04651162790698</v>
       </c>
       <c r="H16" t="n">
-        <v>3.49</v>
+        <v>3.488372093023256</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1245,25 +1245,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.24</v>
+        <v>28.23529411764706</v>
       </c>
       <c r="C17" t="n">
-        <v>12.94</v>
+        <v>12.94117647058824</v>
       </c>
       <c r="D17" t="n">
-        <v>11.18</v>
+        <v>11.1764705882353</v>
       </c>
       <c r="E17" t="n">
-        <v>18.82</v>
+        <v>18.82352941176471</v>
       </c>
       <c r="F17" t="n">
-        <v>7.65</v>
+        <v>7.647058823529412</v>
       </c>
       <c r="G17" t="n">
-        <v>14.12</v>
+        <v>14.11764705882353</v>
       </c>
       <c r="H17" t="n">
-        <v>7.06</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1279,25 +1279,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13.25</v>
+        <v>13.25301204819277</v>
       </c>
       <c r="C18" t="n">
-        <v>42.77</v>
+        <v>42.77108433734939</v>
       </c>
       <c r="D18" t="n">
-        <v>21.08</v>
+        <v>21.08433734939759</v>
       </c>
       <c r="E18" t="n">
-        <v>11.45</v>
+        <v>11.44578313253012</v>
       </c>
       <c r="F18" t="n">
-        <v>1.81</v>
+        <v>1.80722891566265</v>
       </c>
       <c r="G18" t="n">
-        <v>2.41</v>
+        <v>2.409638554216868</v>
       </c>
       <c r="H18" t="n">
-        <v>7.23</v>
+        <v>7.228915662650602</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1316,22 +1316,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>37.91</v>
+        <v>37.91208791208791</v>
       </c>
       <c r="D19" t="n">
-        <v>35.71</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="E19" t="n">
-        <v>12.09</v>
+        <v>12.08791208791209</v>
       </c>
       <c r="F19" t="n">
-        <v>10.44</v>
+        <v>10.43956043956044</v>
       </c>
       <c r="G19" t="n">
-        <v>2.75</v>
+        <v>2.747252747252747</v>
       </c>
       <c r="H19" t="n">
-        <v>1.1</v>
+        <v>1.098901098901099</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1347,25 +1347,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.19</v>
+        <v>1.19047619047619</v>
       </c>
       <c r="C20" t="n">
-        <v>22.62</v>
+        <v>22.61904761904762</v>
       </c>
       <c r="D20" t="n">
-        <v>40.48</v>
+        <v>40.47619047619047</v>
       </c>
       <c r="E20" t="n">
-        <v>23.21</v>
+        <v>23.21428571428572</v>
       </c>
       <c r="F20" t="n">
-        <v>4.17</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="G20" t="n">
-        <v>3.57</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H20" t="n">
-        <v>4.76</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1381,25 +1381,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.63</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="C21" t="n">
-        <v>15.12</v>
+        <v>15.11627906976744</v>
       </c>
       <c r="D21" t="n">
-        <v>27.91</v>
+        <v>27.90697674418605</v>
       </c>
       <c r="E21" t="n">
-        <v>26.16</v>
+        <v>26.16279069767442</v>
       </c>
       <c r="F21" t="n">
-        <v>2.33</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="G21" t="n">
-        <v>12.21</v>
+        <v>12.20930232558139</v>
       </c>
       <c r="H21" t="n">
-        <v>4.65</v>
+        <v>4.651162790697675</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>35.19</v>
+        <v>35.18518518518518</v>
       </c>
       <c r="D22" t="n">
-        <v>38.89</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="E22" t="n">
-        <v>10.49</v>
+        <v>10.49382716049383</v>
       </c>
       <c r="F22" t="n">
-        <v>3.09</v>
+        <v>3.08641975308642</v>
       </c>
       <c r="G22" t="n">
-        <v>12.35</v>
+        <v>12.34567901234568</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1449,25 +1449,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.65</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="C23" t="n">
-        <v>27.08</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="D23" t="n">
-        <v>29.17</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>13.02</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>2.08</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>21.88</v>
+        <v>21.875</v>
       </c>
       <c r="H23" t="n">
-        <v>3.12</v>
+        <v>3.125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>37.8</v>
+        <v>37.80487804878049</v>
       </c>
       <c r="D24" t="n">
         <v>25</v>
       </c>
       <c r="E24" t="n">
-        <v>17.07</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="F24" t="n">
-        <v>9.15</v>
+        <v>9.146341463414634</v>
       </c>
       <c r="G24" t="n">
-        <v>10.98</v>
+        <v>10.97560975609756</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>35.19</v>
+        <v>35.18518518518518</v>
       </c>
       <c r="D25" t="n">
-        <v>38.89</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="E25" t="n">
-        <v>10.49</v>
+        <v>10.49382716049383</v>
       </c>
       <c r="F25" t="n">
-        <v>3.09</v>
+        <v>3.08641975308642</v>
       </c>
       <c r="G25" t="n">
-        <v>12.35</v>
+        <v>12.34567901234568</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1554,19 +1554,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>22.78</v>
+        <v>22.77777777777778</v>
       </c>
       <c r="D26" t="n">
-        <v>51.11</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="E26" t="n">
-        <v>15.56</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="F26" t="n">
-        <v>8.33</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="G26" t="n">
-        <v>2.22</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>14.37</v>
+        <v>14.36781609195402</v>
       </c>
       <c r="D27" t="n">
-        <v>36.21</v>
+        <v>36.20689655172414</v>
       </c>
       <c r="E27" t="n">
-        <v>17.82</v>
+        <v>17.81609195402299</v>
       </c>
       <c r="F27" t="n">
-        <v>9.199999999999999</v>
+        <v>9.195402298850574</v>
       </c>
       <c r="G27" t="n">
-        <v>17.82</v>
+        <v>17.81609195402299</v>
       </c>
       <c r="H27" t="n">
-        <v>4.6</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.32</v>
+        <v>4.320987654320987</v>
       </c>
       <c r="C28" t="n">
-        <v>17.9</v>
+        <v>17.90123456790123</v>
       </c>
       <c r="D28" t="n">
-        <v>24.69</v>
+        <v>24.69135802469136</v>
       </c>
       <c r="E28" t="n">
-        <v>21.6</v>
+        <v>21.60493827160494</v>
       </c>
       <c r="F28" t="n">
-        <v>7.41</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="G28" t="n">
-        <v>19.14</v>
+        <v>19.1358024691358</v>
       </c>
       <c r="H28" t="n">
-        <v>4.94</v>
+        <v>4.938271604938271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1656,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>61.18</v>
+        <v>61.1764705882353</v>
       </c>
       <c r="D29" t="n">
-        <v>19.41</v>
+        <v>19.41176470588236</v>
       </c>
       <c r="E29" t="n">
-        <v>11.18</v>
+        <v>11.1764705882353</v>
       </c>
       <c r="F29" t="n">
-        <v>1.76</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="G29" t="n">
-        <v>6.47</v>
+        <v>6.470588235294119</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.36</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="C30" t="n">
-        <v>20.83</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="D30" t="n">
-        <v>24.4</v>
+        <v>24.40476190476191</v>
       </c>
       <c r="E30" t="n">
-        <v>28.57</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F30" t="n">
-        <v>4.17</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="G30" t="n">
-        <v>10.71</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="H30" t="n">
-        <v>5.95</v>
+        <v>5.952380952380952</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1721,25 +1721,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.13</v>
+        <v>10.12658227848101</v>
       </c>
       <c r="C31" t="n">
-        <v>21.52</v>
+        <v>21.51898734177215</v>
       </c>
       <c r="D31" t="n">
-        <v>33.54</v>
+        <v>33.54430379746836</v>
       </c>
       <c r="E31" t="n">
-        <v>15.19</v>
+        <v>15.18987341772152</v>
       </c>
       <c r="F31" t="n">
-        <v>8.23</v>
+        <v>8.227848101265822</v>
       </c>
       <c r="G31" t="n">
-        <v>5.06</v>
+        <v>5.063291139240507</v>
       </c>
       <c r="H31" t="n">
-        <v>6.33</v>
+        <v>6.329113924050633</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1758,22 +1758,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.88</v>
+        <v>35.88235294117647</v>
       </c>
       <c r="D32" t="n">
-        <v>30.59</v>
+        <v>30.58823529411765</v>
       </c>
       <c r="E32" t="n">
-        <v>18.24</v>
+        <v>18.23529411764706</v>
       </c>
       <c r="F32" t="n">
-        <v>9.41</v>
+        <v>9.411764705882353</v>
       </c>
       <c r="G32" t="n">
-        <v>3.53</v>
+        <v>3.529411764705882</v>
       </c>
       <c r="H32" t="n">
-        <v>2.35</v>
+        <v>2.352941176470588</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1789,25 +1789,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.61</v>
+        <v>4.605263157894736</v>
       </c>
       <c r="C33" t="n">
-        <v>23.03</v>
+        <v>23.02631578947368</v>
       </c>
       <c r="D33" t="n">
-        <v>32.89</v>
+        <v>32.89473684210527</v>
       </c>
       <c r="E33" t="n">
-        <v>19.08</v>
+        <v>19.07894736842105</v>
       </c>
       <c r="F33" t="n">
-        <v>11.18</v>
+        <v>11.18421052631579</v>
       </c>
       <c r="G33" t="n">
-        <v>3.95</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="H33" t="n">
-        <v>5.26</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1826,22 +1826,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>29.41</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="D34" t="n">
-        <v>36.47</v>
+        <v>36.47058823529412</v>
       </c>
       <c r="E34" t="n">
-        <v>11.76</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="F34" t="n">
-        <v>8.82</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="G34" t="n">
         <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>3.53</v>
+        <v>3.529411764705882</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1857,25 +1857,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.79</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="C35" t="n">
-        <v>22.62</v>
+        <v>22.61904761904762</v>
       </c>
       <c r="D35" t="n">
-        <v>34.52</v>
+        <v>34.52380952380953</v>
       </c>
       <c r="E35" t="n">
-        <v>19.05</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="F35" t="n">
-        <v>8.93</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="G35" t="n">
-        <v>10.71</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="H35" t="n">
-        <v>2.38</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.49</v>
+        <v>4.49438202247191</v>
       </c>
       <c r="C36" t="n">
-        <v>3.37</v>
+        <v>3.370786516853932</v>
       </c>
       <c r="D36" t="n">
-        <v>14.04</v>
+        <v>14.04494382022472</v>
       </c>
       <c r="E36" t="n">
-        <v>36.52</v>
+        <v>36.51685393258427</v>
       </c>
       <c r="F36" t="n">
-        <v>20.22</v>
+        <v>20.22471910112359</v>
       </c>
       <c r="G36" t="n">
-        <v>17.98</v>
+        <v>17.97752808988764</v>
       </c>
       <c r="H36" t="n">
-        <v>3.37</v>
+        <v>3.370786516853932</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1928,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>45.83</v>
+        <v>45.83333333333333</v>
       </c>
       <c r="D37" t="n">
-        <v>34.52</v>
+        <v>34.52380952380953</v>
       </c>
       <c r="E37" t="n">
-        <v>11.31</v>
+        <v>11.30952380952381</v>
       </c>
       <c r="F37" t="n">
-        <v>2.38</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="G37" t="n">
-        <v>3.57</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H37" t="n">
-        <v>2.38</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1962,19 +1962,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>31.67</v>
+        <v>31.66666666666666</v>
       </c>
       <c r="D38" t="n">
-        <v>23.89</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="E38" t="n">
-        <v>22.78</v>
+        <v>22.77777777777778</v>
       </c>
       <c r="F38" t="n">
-        <v>9.44</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="G38" t="n">
-        <v>12.22</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1996,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>14.2</v>
+        <v>14.19753086419753</v>
       </c>
       <c r="D39" t="n">
-        <v>51.85</v>
+        <v>51.85185185185185</v>
       </c>
       <c r="E39" t="n">
-        <v>22.84</v>
+        <v>22.83950617283951</v>
       </c>
       <c r="F39" t="n">
-        <v>8.640000000000001</v>
+        <v>8.641975308641975</v>
       </c>
       <c r="G39" t="n">
-        <v>2.47</v>
+        <v>2.469135802469136</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -2030,19 +2030,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>22.53</v>
+        <v>22.52747252747253</v>
       </c>
       <c r="D40" t="n">
-        <v>46.7</v>
+        <v>46.7032967032967</v>
       </c>
       <c r="E40" t="n">
-        <v>12.64</v>
+        <v>12.63736263736264</v>
       </c>
       <c r="F40" t="n">
-        <v>7.69</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="G40" t="n">
-        <v>10.44</v>
+        <v>10.43956043956044</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -2064,19 +2064,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>26.67</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="D41" t="n">
-        <v>38.33</v>
+        <v>38.33333333333334</v>
       </c>
       <c r="E41" t="n">
-        <v>17.78</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="F41" t="n">
-        <v>6.11</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="G41" t="n">
-        <v>11.11</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2098,28 +2098,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>19.05</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="D42" t="n">
-        <v>25.6</v>
+        <v>25.59523809523809</v>
       </c>
       <c r="E42" t="n">
-        <v>30.95</v>
+        <v>30.95238095238095</v>
       </c>
       <c r="F42" t="n">
-        <v>10.12</v>
+        <v>10.11904761904762</v>
       </c>
       <c r="G42" t="n">
-        <v>10.71</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="H42" t="n">
-        <v>3.57</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>51.76</v>
+        <v>51.76470588235295</v>
       </c>
       <c r="D43" t="n">
-        <v>18.24</v>
+        <v>18.23529411764706</v>
       </c>
       <c r="E43" t="n">
-        <v>7.06</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="F43" t="n">
-        <v>2.94</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="G43" t="n">
-        <v>17.65</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="H43" t="n">
-        <v>2.35</v>
+        <v>2.352941176470588</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>35.57</v>
+        <v>35.56701030927835</v>
       </c>
       <c r="D44" t="n">
-        <v>41.24</v>
+        <v>41.23711340206185</v>
       </c>
       <c r="E44" t="n">
-        <v>5.67</v>
+        <v>5.670103092783505</v>
       </c>
       <c r="F44" t="n">
-        <v>4.64</v>
+        <v>4.639175257731959</v>
       </c>
       <c r="G44" t="n">
-        <v>10.82</v>
+        <v>10.82474226804124</v>
       </c>
       <c r="H44" t="n">
-        <v>2.06</v>
+        <v>2.061855670103093</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2200,28 +2200,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>41.76</v>
+        <v>41.76470588235294</v>
       </c>
       <c r="D45" t="n">
-        <v>35.88</v>
+        <v>35.88235294117647</v>
       </c>
       <c r="E45" t="n">
-        <v>7.06</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="F45" t="n">
-        <v>4.71</v>
+        <v>4.705882352941177</v>
       </c>
       <c r="G45" t="n">
-        <v>7.06</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="H45" t="n">
-        <v>3.53</v>
+        <v>3.529411764705882</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -2234,22 +2234,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>32.94</v>
+        <v>32.94117647058823</v>
       </c>
       <c r="D46" t="n">
-        <v>34.12</v>
+        <v>34.11764705882353</v>
       </c>
       <c r="E46" t="n">
-        <v>12.35</v>
+        <v>12.35294117647059</v>
       </c>
       <c r="F46" t="n">
-        <v>7.06</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="G46" t="n">
-        <v>11.18</v>
+        <v>11.1764705882353</v>
       </c>
       <c r="H46" t="n">
-        <v>2.35</v>
+        <v>2.352941176470588</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2268,16 +2268,16 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>27.22</v>
+        <v>27.22222222222222</v>
       </c>
       <c r="D47" t="n">
-        <v>32.22</v>
+        <v>32.22222222222222</v>
       </c>
       <c r="E47" t="n">
-        <v>23.33</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="F47" t="n">
-        <v>7.22</v>
+        <v>7.222222222222221</v>
       </c>
       <c r="G47" t="n">
         <v>10</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -2302,28 +2302,28 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>35.06</v>
+        <v>35.05747126436782</v>
       </c>
       <c r="D48" t="n">
-        <v>28.16</v>
+        <v>28.16091954022988</v>
       </c>
       <c r="E48" t="n">
-        <v>22.99</v>
+        <v>22.98850574712644</v>
       </c>
       <c r="F48" t="n">
-        <v>4.6</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="G48" t="n">
-        <v>5.75</v>
+        <v>5.747126436781609</v>
       </c>
       <c r="H48" t="n">
-        <v>3.45</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -2333,25 +2333,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>11.11</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="C49" t="n">
-        <v>16.05</v>
+        <v>16.04938271604938</v>
       </c>
       <c r="D49" t="n">
-        <v>26.54</v>
+        <v>26.54320987654321</v>
       </c>
       <c r="E49" t="n">
-        <v>24.07</v>
+        <v>24.07407407407407</v>
       </c>
       <c r="F49" t="n">
-        <v>5.56</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="G49" t="n">
-        <v>10.49</v>
+        <v>10.49382716049383</v>
       </c>
       <c r="H49" t="n">
-        <v>6.17</v>
+        <v>6.172839506172839</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2370,22 +2370,22 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>47.53</v>
+        <v>47.53086419753087</v>
       </c>
       <c r="D50" t="n">
-        <v>32.72</v>
+        <v>32.71604938271605</v>
       </c>
       <c r="E50" t="n">
-        <v>4.94</v>
+        <v>4.938271604938271</v>
       </c>
       <c r="F50" t="n">
-        <v>4.32</v>
+        <v>4.320987654320987</v>
       </c>
       <c r="G50" t="n">
-        <v>9.26</v>
+        <v>9.25925925925926</v>
       </c>
       <c r="H50" t="n">
-        <v>1.23</v>
+        <v>1.234567901234568</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2401,25 +2401,25 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5.29</v>
+        <v>5.294117647058823</v>
       </c>
       <c r="C51" t="n">
-        <v>14.12</v>
+        <v>14.11764705882353</v>
       </c>
       <c r="D51" t="n">
-        <v>33.53</v>
+        <v>33.52941176470588</v>
       </c>
       <c r="E51" t="n">
-        <v>15.29</v>
+        <v>15.29411764705882</v>
       </c>
       <c r="F51" t="n">
-        <v>8.82</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="G51" t="n">
-        <v>18.24</v>
+        <v>18.23529411764706</v>
       </c>
       <c r="H51" t="n">
-        <v>4.71</v>
+        <v>4.705882352941177</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2438,22 +2438,22 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>44.02</v>
+        <v>44.02173913043478</v>
       </c>
       <c r="D52" t="n">
-        <v>30.43</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="E52" t="n">
-        <v>9.24</v>
+        <v>9.239130434782608</v>
       </c>
       <c r="F52" t="n">
-        <v>2.72</v>
+        <v>2.717391304347826</v>
       </c>
       <c r="G52" t="n">
-        <v>10.33</v>
+        <v>10.32608695652174</v>
       </c>
       <c r="H52" t="n">
-        <v>3.26</v>
+        <v>3.260869565217391</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2472,28 +2472,28 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>21.51</v>
+        <v>21.51162790697675</v>
       </c>
       <c r="D53" t="n">
-        <v>36.63</v>
+        <v>36.62790697674419</v>
       </c>
       <c r="E53" t="n">
-        <v>18.02</v>
+        <v>18.02325581395349</v>
       </c>
       <c r="F53" t="n">
-        <v>8.720000000000001</v>
+        <v>8.720930232558139</v>
       </c>
       <c r="G53" t="n">
-        <v>11.63</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="H53" t="n">
-        <v>3.49</v>
+        <v>3.488372093023256</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -2509,19 +2509,19 @@
         <v>60</v>
       </c>
       <c r="D54" t="n">
-        <v>19.41</v>
+        <v>19.41176470588236</v>
       </c>
       <c r="E54" t="n">
-        <v>1.18</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="F54" t="n">
-        <v>2.35</v>
+        <v>2.352941176470588</v>
       </c>
       <c r="G54" t="n">
-        <v>14.71</v>
+        <v>14.70588235294118</v>
       </c>
       <c r="H54" t="n">
-        <v>2.35</v>
+        <v>2.352941176470588</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2537,31 +2537,31 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5.56</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="C55" t="n">
-        <v>23.46</v>
+        <v>23.45679012345679</v>
       </c>
       <c r="D55" t="n">
-        <v>28.4</v>
+        <v>28.39506172839506</v>
       </c>
       <c r="E55" t="n">
-        <v>20.37</v>
+        <v>20.37037037037037</v>
       </c>
       <c r="F55" t="n">
-        <v>8.02</v>
+        <v>8.024691358024691</v>
       </c>
       <c r="G55" t="n">
-        <v>9.26</v>
+        <v>9.25925925925926</v>
       </c>
       <c r="H55" t="n">
-        <v>4.94</v>
+        <v>4.938271604938271</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -2574,16 +2574,16 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>61.59</v>
+        <v>61.58536585365854</v>
       </c>
       <c r="D56" t="n">
-        <v>24.39</v>
+        <v>24.39024390243902</v>
       </c>
       <c r="E56" t="n">
-        <v>7.32</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="F56" t="n">
-        <v>6.71</v>
+        <v>6.707317073170732</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.36</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="C57" t="n">
-        <v>39.29</v>
+        <v>39.28571428571428</v>
       </c>
       <c r="D57" t="n">
-        <v>21.43</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="E57" t="n">
-        <v>7.74</v>
+        <v>7.738095238095238</v>
       </c>
       <c r="F57" t="n">
-        <v>3.57</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="G57" t="n">
-        <v>17.86</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="H57" t="n">
-        <v>4.76</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>26.88</v>
+        <v>26.875</v>
       </c>
       <c r="D58" t="n">
-        <v>41.88</v>
+        <v>41.875</v>
       </c>
       <c r="E58" t="n">
         <v>12.5</v>
@@ -2679,19 +2679,19 @@
         <v>40</v>
       </c>
       <c r="D59" t="n">
-        <v>20.59</v>
+        <v>20.58823529411764</v>
       </c>
       <c r="E59" t="n">
         <v>20</v>
       </c>
       <c r="F59" t="n">
-        <v>7.65</v>
+        <v>7.647058823529412</v>
       </c>
       <c r="G59" t="n">
-        <v>9.41</v>
+        <v>9.411764705882353</v>
       </c>
       <c r="H59" t="n">
-        <v>2.35</v>
+        <v>2.352941176470588</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>64.84</v>
+        <v>64.83516483516483</v>
       </c>
       <c r="D60" t="n">
-        <v>23.63</v>
+        <v>23.62637362637362</v>
       </c>
       <c r="E60" t="n">
-        <v>7.69</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="F60" t="n">
-        <v>1.65</v>
+        <v>1.648351648351648</v>
       </c>
       <c r="G60" t="n">
-        <v>2.2</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2741,25 +2741,25 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10.34</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="C61" t="n">
-        <v>9.77</v>
+        <v>9.770114942528735</v>
       </c>
       <c r="D61" t="n">
-        <v>34.48</v>
+        <v>34.48275862068966</v>
       </c>
       <c r="E61" t="n">
-        <v>24.71</v>
+        <v>24.71264367816092</v>
       </c>
       <c r="F61" t="n">
-        <v>8.050000000000001</v>
+        <v>8.045977011494253</v>
       </c>
       <c r="G61" t="n">
-        <v>6.9</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="H61" t="n">
-        <v>5.75</v>
+        <v>5.747126436781609</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2775,25 +2775,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>11.84</v>
+        <v>11.84210526315789</v>
       </c>
       <c r="C62" t="n">
-        <v>29.61</v>
+        <v>29.60526315789473</v>
       </c>
       <c r="D62" t="n">
-        <v>34.21</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="E62" t="n">
-        <v>10.53</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="F62" t="n">
-        <v>0.66</v>
+        <v>0.6578947368421052</v>
       </c>
       <c r="G62" t="n">
-        <v>7.89</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H62" t="n">
-        <v>5.26</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2812,28 +2812,28 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>22.02</v>
+        <v>22.02380952380952</v>
       </c>
       <c r="D63" t="n">
-        <v>29.76</v>
+        <v>29.76190476190476</v>
       </c>
       <c r="E63" t="n">
-        <v>16.67</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="F63" t="n">
-        <v>11.9</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="G63" t="n">
-        <v>17.26</v>
+        <v>17.26190476190476</v>
       </c>
       <c r="H63" t="n">
-        <v>2.38</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -2843,25 +2843,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>12.35</v>
+        <v>12.34567901234568</v>
       </c>
       <c r="C64" t="n">
-        <v>19.75</v>
+        <v>19.75308641975309</v>
       </c>
       <c r="D64" t="n">
-        <v>27.16</v>
+        <v>27.16049382716049</v>
       </c>
       <c r="E64" t="n">
-        <v>18.52</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="F64" t="n">
-        <v>6.17</v>
+        <v>6.172839506172839</v>
       </c>
       <c r="G64" t="n">
-        <v>9.880000000000001</v>
+        <v>9.876543209876543</v>
       </c>
       <c r="H64" t="n">
-        <v>6.17</v>
+        <v>6.172839506172839</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
